--- a/外部データ/ステージデザイン/ステージデザイン_ステージ名.xlsx
+++ b/外部データ/ステージデザイン/ステージデザイン_ステージ名.xlsx
@@ -984,10 +984,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1005,66 +1107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,48 +1115,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,7 +1420,10 @@
   <dimension ref="A1:AOP1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1431,26 +1434,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1082" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="34" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42"/>
     </row>
     <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3248,4098 +3251,4098 @@
       <c r="FD13" s="10"/>
       <c r="FE13" s="10"/>
     </row>
-    <row r="14" spans="1:1082" s="57" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1082" s="26" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="25">
         <v>0</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="26">
         <v>1</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="26">
         <v>2</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="26">
         <v>3</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="26">
         <v>4</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="26">
         <v>5</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="26">
         <v>6</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="26">
         <v>7</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="26">
         <v>8</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="26">
         <v>9</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="26">
         <v>10</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="26">
         <v>11</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="26">
         <v>12</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="26">
         <v>13</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="26">
         <v>14</v>
       </c>
-      <c r="R14" s="57">
+      <c r="R14" s="26">
         <v>15</v>
       </c>
-      <c r="S14" s="57">
+      <c r="S14" s="26">
         <v>16</v>
       </c>
-      <c r="T14" s="57">
+      <c r="T14" s="26">
         <v>17</v>
       </c>
-      <c r="U14" s="57">
+      <c r="U14" s="26">
         <v>18</v>
       </c>
-      <c r="V14" s="57">
+      <c r="V14" s="26">
         <v>19</v>
       </c>
-      <c r="W14" s="57">
+      <c r="W14" s="26">
         <v>20</v>
       </c>
-      <c r="X14" s="57">
+      <c r="X14" s="26">
         <v>21</v>
       </c>
-      <c r="Y14" s="57">
+      <c r="Y14" s="26">
         <v>22</v>
       </c>
-      <c r="Z14" s="57">
+      <c r="Z14" s="26">
         <v>23</v>
       </c>
-      <c r="AA14" s="57">
+      <c r="AA14" s="26">
         <v>24</v>
       </c>
-      <c r="AB14" s="57">
+      <c r="AB14" s="26">
         <v>25</v>
       </c>
-      <c r="AC14" s="57">
+      <c r="AC14" s="26">
         <v>26</v>
       </c>
-      <c r="AD14" s="57">
+      <c r="AD14" s="26">
         <v>27</v>
       </c>
-      <c r="AE14" s="57">
+      <c r="AE14" s="26">
         <v>28</v>
       </c>
-      <c r="AF14" s="57">
+      <c r="AF14" s="26">
         <v>29</v>
       </c>
-      <c r="AG14" s="57">
+      <c r="AG14" s="26">
         <v>30</v>
       </c>
-      <c r="AH14" s="57">
+      <c r="AH14" s="26">
         <v>31</v>
       </c>
-      <c r="AI14" s="57">
+      <c r="AI14" s="26">
         <v>32</v>
       </c>
-      <c r="AJ14" s="57">
+      <c r="AJ14" s="26">
         <v>33</v>
       </c>
-      <c r="AK14" s="57">
+      <c r="AK14" s="26">
         <v>34</v>
       </c>
-      <c r="AL14" s="57">
+      <c r="AL14" s="26">
         <v>35</v>
       </c>
-      <c r="AM14" s="57">
+      <c r="AM14" s="26">
         <v>36</v>
       </c>
-      <c r="AN14" s="57">
+      <c r="AN14" s="26">
         <v>37</v>
       </c>
-      <c r="AO14" s="57">
+      <c r="AO14" s="26">
         <v>38</v>
       </c>
-      <c r="AP14" s="57">
+      <c r="AP14" s="26">
         <v>39</v>
       </c>
-      <c r="AQ14" s="57">
+      <c r="AQ14" s="26">
         <v>40</v>
       </c>
-      <c r="AR14" s="57">
+      <c r="AR14" s="26">
         <v>41</v>
       </c>
-      <c r="AS14" s="57">
+      <c r="AS14" s="26">
         <v>42</v>
       </c>
-      <c r="AT14" s="57">
+      <c r="AT14" s="26">
         <v>43</v>
       </c>
-      <c r="AU14" s="57">
+      <c r="AU14" s="26">
         <v>44</v>
       </c>
-      <c r="AV14" s="57">
+      <c r="AV14" s="26">
         <v>45</v>
       </c>
-      <c r="AW14" s="57">
+      <c r="AW14" s="26">
         <v>46</v>
       </c>
-      <c r="AX14" s="57">
+      <c r="AX14" s="26">
         <v>47</v>
       </c>
-      <c r="AY14" s="57">
+      <c r="AY14" s="26">
         <v>48</v>
       </c>
-      <c r="AZ14" s="57">
+      <c r="AZ14" s="26">
         <v>49</v>
       </c>
-      <c r="BA14" s="57">
+      <c r="BA14" s="26">
         <v>50</v>
       </c>
-      <c r="BB14" s="57">
+      <c r="BB14" s="26">
         <v>51</v>
       </c>
-      <c r="BC14" s="57">
+      <c r="BC14" s="26">
         <v>52</v>
       </c>
-      <c r="BD14" s="57">
+      <c r="BD14" s="26">
         <v>53</v>
       </c>
-      <c r="BE14" s="57">
+      <c r="BE14" s="26">
         <v>54</v>
       </c>
-      <c r="BF14" s="57">
+      <c r="BF14" s="26">
         <v>55</v>
       </c>
-      <c r="BG14" s="57">
+      <c r="BG14" s="26">
         <v>56</v>
       </c>
-      <c r="BH14" s="57">
+      <c r="BH14" s="26">
         <v>57</v>
       </c>
-      <c r="BI14" s="57">
+      <c r="BI14" s="26">
         <v>58</v>
       </c>
-      <c r="BJ14" s="57">
+      <c r="BJ14" s="26">
         <v>59</v>
       </c>
-      <c r="BK14" s="57">
+      <c r="BK14" s="26">
         <v>60</v>
       </c>
-      <c r="BL14" s="57">
+      <c r="BL14" s="26">
         <v>61</v>
       </c>
-      <c r="BM14" s="57">
+      <c r="BM14" s="26">
         <v>62</v>
       </c>
-      <c r="BN14" s="57">
+      <c r="BN14" s="26">
         <v>63</v>
       </c>
-      <c r="BO14" s="57">
+      <c r="BO14" s="26">
         <v>64</v>
       </c>
-      <c r="BP14" s="57">
+      <c r="BP14" s="26">
         <v>65</v>
       </c>
-      <c r="BQ14" s="57">
+      <c r="BQ14" s="26">
         <v>66</v>
       </c>
-      <c r="BR14" s="57">
+      <c r="BR14" s="26">
         <v>67</v>
       </c>
-      <c r="BS14" s="57">
+      <c r="BS14" s="26">
         <v>68</v>
       </c>
-      <c r="BT14" s="57">
+      <c r="BT14" s="26">
         <v>69</v>
       </c>
-      <c r="BU14" s="57">
+      <c r="BU14" s="26">
         <v>70</v>
       </c>
-      <c r="BV14" s="57">
+      <c r="BV14" s="26">
         <v>71</v>
       </c>
-      <c r="BW14" s="57">
+      <c r="BW14" s="26">
         <v>72</v>
       </c>
-      <c r="BX14" s="57">
+      <c r="BX14" s="26">
         <v>73</v>
       </c>
-      <c r="BY14" s="57">
+      <c r="BY14" s="26">
         <v>74</v>
       </c>
-      <c r="BZ14" s="57">
+      <c r="BZ14" s="26">
         <v>75</v>
       </c>
-      <c r="CA14" s="57">
+      <c r="CA14" s="26">
         <v>76</v>
       </c>
-      <c r="CB14" s="57">
+      <c r="CB14" s="26">
         <v>77</v>
       </c>
-      <c r="CC14" s="57">
+      <c r="CC14" s="26">
         <v>78</v>
       </c>
-      <c r="CD14" s="57">
+      <c r="CD14" s="26">
         <v>79</v>
       </c>
-      <c r="CE14" s="57">
+      <c r="CE14" s="26">
         <v>80</v>
       </c>
-      <c r="CF14" s="57">
+      <c r="CF14" s="26">
         <v>81</v>
       </c>
-      <c r="CG14" s="57">
+      <c r="CG14" s="26">
         <v>82</v>
       </c>
-      <c r="CH14" s="57">
+      <c r="CH14" s="26">
         <v>83</v>
       </c>
-      <c r="CI14" s="57">
+      <c r="CI14" s="26">
         <v>84</v>
       </c>
-      <c r="CJ14" s="57">
+      <c r="CJ14" s="26">
         <v>85</v>
       </c>
-      <c r="CK14" s="57">
+      <c r="CK14" s="26">
         <v>86</v>
       </c>
-      <c r="CL14" s="57">
+      <c r="CL14" s="26">
         <v>87</v>
       </c>
-      <c r="CM14" s="57">
+      <c r="CM14" s="26">
         <v>88</v>
       </c>
-      <c r="CN14" s="57">
+      <c r="CN14" s="26">
         <v>89</v>
       </c>
-      <c r="CO14" s="57">
+      <c r="CO14" s="26">
         <v>90</v>
       </c>
-      <c r="CP14" s="57">
+      <c r="CP14" s="26">
         <v>91</v>
       </c>
-      <c r="CQ14" s="57">
+      <c r="CQ14" s="26">
         <v>92</v>
       </c>
-      <c r="CR14" s="57">
+      <c r="CR14" s="26">
         <v>93</v>
       </c>
-      <c r="CS14" s="57">
+      <c r="CS14" s="26">
         <v>94</v>
       </c>
-      <c r="CT14" s="57">
+      <c r="CT14" s="26">
         <v>95</v>
       </c>
-      <c r="CU14" s="57">
+      <c r="CU14" s="26">
         <v>96</v>
       </c>
-      <c r="CV14" s="57">
+      <c r="CV14" s="26">
         <v>97</v>
       </c>
-      <c r="CW14" s="57">
+      <c r="CW14" s="26">
         <v>98</v>
       </c>
-      <c r="CX14" s="57">
+      <c r="CX14" s="26">
         <v>99</v>
       </c>
-      <c r="CY14" s="57">
+      <c r="CY14" s="26">
         <v>100</v>
       </c>
-      <c r="CZ14" s="57">
+      <c r="CZ14" s="26">
         <v>101</v>
       </c>
-      <c r="DA14" s="57">
+      <c r="DA14" s="26">
         <v>102</v>
       </c>
-      <c r="DB14" s="57">
+      <c r="DB14" s="26">
         <v>103</v>
       </c>
-      <c r="DC14" s="57">
+      <c r="DC14" s="26">
         <v>104</v>
       </c>
-      <c r="DD14" s="57">
+      <c r="DD14" s="26">
         <v>105</v>
       </c>
-      <c r="DE14" s="57">
+      <c r="DE14" s="26">
         <v>106</v>
       </c>
-      <c r="DF14" s="57">
+      <c r="DF14" s="26">
         <v>107</v>
       </c>
-      <c r="DG14" s="57">
+      <c r="DG14" s="26">
         <v>108</v>
       </c>
-      <c r="DH14" s="57">
+      <c r="DH14" s="26">
         <v>109</v>
       </c>
-      <c r="DI14" s="57">
+      <c r="DI14" s="26">
         <v>110</v>
       </c>
-      <c r="DJ14" s="57">
+      <c r="DJ14" s="26">
         <v>111</v>
       </c>
-      <c r="DK14" s="57">
+      <c r="DK14" s="26">
         <v>112</v>
       </c>
-      <c r="DL14" s="57">
+      <c r="DL14" s="26">
         <v>113</v>
       </c>
-      <c r="DM14" s="57">
+      <c r="DM14" s="26">
         <v>114</v>
       </c>
-      <c r="DN14" s="57">
+      <c r="DN14" s="26">
         <v>115</v>
       </c>
-      <c r="DO14" s="57">
+      <c r="DO14" s="26">
         <v>116</v>
       </c>
-      <c r="DP14" s="57">
+      <c r="DP14" s="26">
         <v>117</v>
       </c>
-      <c r="DQ14" s="57">
+      <c r="DQ14" s="26">
         <v>118</v>
       </c>
-      <c r="DR14" s="57">
+      <c r="DR14" s="26">
         <v>119</v>
       </c>
-      <c r="DS14" s="57">
+      <c r="DS14" s="26">
         <v>120</v>
       </c>
-      <c r="DT14" s="57">
+      <c r="DT14" s="26">
         <v>121</v>
       </c>
-      <c r="DU14" s="57">
+      <c r="DU14" s="26">
         <v>122</v>
       </c>
-      <c r="DV14" s="57">
+      <c r="DV14" s="26">
         <v>123</v>
       </c>
-      <c r="DW14" s="57">
+      <c r="DW14" s="26">
         <v>124</v>
       </c>
-      <c r="DX14" s="57">
+      <c r="DX14" s="26">
         <v>125</v>
       </c>
-      <c r="DY14" s="57">
+      <c r="DY14" s="26">
         <v>126</v>
       </c>
-      <c r="DZ14" s="57">
+      <c r="DZ14" s="26">
         <v>127</v>
       </c>
-      <c r="EA14" s="57">
+      <c r="EA14" s="26">
         <v>128</v>
       </c>
-      <c r="EB14" s="57">
+      <c r="EB14" s="26">
         <v>129</v>
       </c>
-      <c r="EC14" s="57">
+      <c r="EC14" s="26">
         <v>130</v>
       </c>
-      <c r="ED14" s="57">
+      <c r="ED14" s="26">
         <v>131</v>
       </c>
-      <c r="EE14" s="57">
+      <c r="EE14" s="26">
         <v>132</v>
       </c>
-      <c r="EF14" s="57">
+      <c r="EF14" s="26">
         <v>133</v>
       </c>
-      <c r="EG14" s="57">
+      <c r="EG14" s="26">
         <v>134</v>
       </c>
-      <c r="EH14" s="57">
+      <c r="EH14" s="26">
         <v>135</v>
       </c>
-      <c r="EI14" s="57">
+      <c r="EI14" s="26">
         <v>136</v>
       </c>
-      <c r="EJ14" s="57">
+      <c r="EJ14" s="26">
         <v>137</v>
       </c>
-      <c r="EK14" s="57">
+      <c r="EK14" s="26">
         <v>138</v>
       </c>
-      <c r="EL14" s="57">
+      <c r="EL14" s="26">
         <v>139</v>
       </c>
-      <c r="EM14" s="57">
+      <c r="EM14" s="26">
         <v>140</v>
       </c>
-      <c r="EN14" s="57">
+      <c r="EN14" s="26">
         <v>141</v>
       </c>
-      <c r="EO14" s="57">
+      <c r="EO14" s="26">
         <v>142</v>
       </c>
-      <c r="EP14" s="57">
+      <c r="EP14" s="26">
         <v>143</v>
       </c>
-      <c r="EQ14" s="57">
+      <c r="EQ14" s="26">
         <v>144</v>
       </c>
-      <c r="ER14" s="57">
+      <c r="ER14" s="26">
         <v>145</v>
       </c>
-      <c r="ES14" s="57">
+      <c r="ES14" s="26">
         <v>146</v>
       </c>
-      <c r="ET14" s="57">
+      <c r="ET14" s="26">
         <v>147</v>
       </c>
-      <c r="EU14" s="57">
+      <c r="EU14" s="26">
         <v>148</v>
       </c>
-      <c r="EV14" s="57">
+      <c r="EV14" s="26">
         <v>149</v>
       </c>
-      <c r="EW14" s="57">
+      <c r="EW14" s="26">
         <v>150</v>
       </c>
-      <c r="EX14" s="57">
+      <c r="EX14" s="26">
         <v>151</v>
       </c>
-      <c r="EY14" s="57">
+      <c r="EY14" s="26">
         <v>152</v>
       </c>
-      <c r="EZ14" s="57">
+      <c r="EZ14" s="26">
         <v>153</v>
       </c>
-      <c r="FA14" s="57">
+      <c r="FA14" s="26">
         <v>154</v>
       </c>
-      <c r="FB14" s="57">
+      <c r="FB14" s="26">
         <v>155</v>
       </c>
-      <c r="FC14" s="57">
+      <c r="FC14" s="26">
         <v>156</v>
       </c>
-      <c r="FD14" s="57">
+      <c r="FD14" s="26">
         <v>157</v>
       </c>
-      <c r="FE14" s="57">
+      <c r="FE14" s="26">
         <v>158</v>
       </c>
-      <c r="FF14" s="57">
+      <c r="FF14" s="26">
         <v>159</v>
       </c>
-      <c r="FG14" s="57">
+      <c r="FG14" s="26">
         <v>160</v>
       </c>
-      <c r="FH14" s="57">
+      <c r="FH14" s="26">
         <v>161</v>
       </c>
-      <c r="FI14" s="57">
+      <c r="FI14" s="26">
         <v>162</v>
       </c>
-      <c r="FJ14" s="57">
+      <c r="FJ14" s="26">
         <v>163</v>
       </c>
-      <c r="FK14" s="57">
+      <c r="FK14" s="26">
         <v>164</v>
       </c>
-      <c r="FL14" s="57">
+      <c r="FL14" s="26">
         <v>165</v>
       </c>
-      <c r="FM14" s="57">
+      <c r="FM14" s="26">
         <v>166</v>
       </c>
-      <c r="FN14" s="57">
+      <c r="FN14" s="26">
         <v>167</v>
       </c>
-      <c r="FO14" s="57">
+      <c r="FO14" s="26">
         <v>168</v>
       </c>
-      <c r="FP14" s="57">
+      <c r="FP14" s="26">
         <v>169</v>
       </c>
-      <c r="FQ14" s="57">
+      <c r="FQ14" s="26">
         <v>170</v>
       </c>
-      <c r="FR14" s="57">
+      <c r="FR14" s="26">
         <v>171</v>
       </c>
-      <c r="FS14" s="57">
+      <c r="FS14" s="26">
         <v>172</v>
       </c>
-      <c r="FT14" s="57">
+      <c r="FT14" s="26">
         <v>173</v>
       </c>
-      <c r="FU14" s="57">
+      <c r="FU14" s="26">
         <v>174</v>
       </c>
-      <c r="FV14" s="57">
+      <c r="FV14" s="26">
         <v>175</v>
       </c>
-      <c r="FW14" s="57">
+      <c r="FW14" s="26">
         <v>176</v>
       </c>
-      <c r="FX14" s="57">
+      <c r="FX14" s="26">
         <v>177</v>
       </c>
-      <c r="FY14" s="57">
+      <c r="FY14" s="26">
         <v>178</v>
       </c>
-      <c r="FZ14" s="57">
+      <c r="FZ14" s="26">
         <v>179</v>
       </c>
-      <c r="GA14" s="57">
+      <c r="GA14" s="26">
         <v>180</v>
       </c>
-      <c r="GB14" s="57">
+      <c r="GB14" s="26">
         <v>181</v>
       </c>
-      <c r="GC14" s="57">
+      <c r="GC14" s="26">
         <v>182</v>
       </c>
-      <c r="GD14" s="57">
+      <c r="GD14" s="26">
         <v>183</v>
       </c>
-      <c r="GE14" s="57">
+      <c r="GE14" s="26">
         <v>184</v>
       </c>
-      <c r="GF14" s="57">
+      <c r="GF14" s="26">
         <v>185</v>
       </c>
-      <c r="GG14" s="57">
+      <c r="GG14" s="26">
         <v>186</v>
       </c>
-      <c r="GH14" s="57">
+      <c r="GH14" s="26">
         <v>187</v>
       </c>
-      <c r="GI14" s="57">
+      <c r="GI14" s="26">
         <v>188</v>
       </c>
-      <c r="GJ14" s="57">
+      <c r="GJ14" s="26">
         <v>189</v>
       </c>
-      <c r="GK14" s="57">
+      <c r="GK14" s="26">
         <v>190</v>
       </c>
-      <c r="GL14" s="57">
+      <c r="GL14" s="26">
         <v>191</v>
       </c>
-      <c r="GM14" s="57">
+      <c r="GM14" s="26">
         <v>192</v>
       </c>
-      <c r="GN14" s="57">
+      <c r="GN14" s="26">
         <v>193</v>
       </c>
-      <c r="GO14" s="57">
+      <c r="GO14" s="26">
         <v>194</v>
       </c>
-      <c r="GP14" s="57">
+      <c r="GP14" s="26">
         <v>195</v>
       </c>
-      <c r="GQ14" s="57">
+      <c r="GQ14" s="26">
         <v>196</v>
       </c>
-      <c r="GR14" s="57">
+      <c r="GR14" s="26">
         <v>197</v>
       </c>
-      <c r="GS14" s="57">
+      <c r="GS14" s="26">
         <v>198</v>
       </c>
-      <c r="GT14" s="57">
+      <c r="GT14" s="26">
         <v>199</v>
       </c>
-      <c r="GU14" s="57">
+      <c r="GU14" s="26">
         <v>200</v>
       </c>
-      <c r="GV14" s="57">
+      <c r="GV14" s="26">
         <v>201</v>
       </c>
-      <c r="GW14" s="57">
+      <c r="GW14" s="26">
         <v>202</v>
       </c>
-      <c r="GX14" s="57">
+      <c r="GX14" s="26">
         <v>203</v>
       </c>
-      <c r="GY14" s="57">
+      <c r="GY14" s="26">
         <v>204</v>
       </c>
-      <c r="GZ14" s="57">
+      <c r="GZ14" s="26">
         <v>205</v>
       </c>
-      <c r="HA14" s="57">
+      <c r="HA14" s="26">
         <v>206</v>
       </c>
-      <c r="HB14" s="57">
+      <c r="HB14" s="26">
         <v>207</v>
       </c>
-      <c r="HC14" s="57">
+      <c r="HC14" s="26">
         <v>208</v>
       </c>
-      <c r="HD14" s="57">
+      <c r="HD14" s="26">
         <v>209</v>
       </c>
-      <c r="HE14" s="57">
+      <c r="HE14" s="26">
         <v>210</v>
       </c>
-      <c r="HF14" s="57">
+      <c r="HF14" s="26">
         <v>211</v>
       </c>
-      <c r="HG14" s="57">
+      <c r="HG14" s="26">
         <v>212</v>
       </c>
-      <c r="HH14" s="57">
+      <c r="HH14" s="26">
         <v>213</v>
       </c>
-      <c r="HI14" s="57">
+      <c r="HI14" s="26">
         <v>214</v>
       </c>
-      <c r="HJ14" s="57">
+      <c r="HJ14" s="26">
         <v>215</v>
       </c>
-      <c r="HK14" s="57">
+      <c r="HK14" s="26">
         <v>216</v>
       </c>
-      <c r="HL14" s="57">
+      <c r="HL14" s="26">
         <v>217</v>
       </c>
-      <c r="HM14" s="57">
+      <c r="HM14" s="26">
         <v>218</v>
       </c>
-      <c r="HN14" s="57">
+      <c r="HN14" s="26">
         <v>219</v>
       </c>
-      <c r="HO14" s="57">
+      <c r="HO14" s="26">
         <v>220</v>
       </c>
-      <c r="HP14" s="57">
+      <c r="HP14" s="26">
         <v>221</v>
       </c>
-      <c r="HQ14" s="57">
+      <c r="HQ14" s="26">
         <v>222</v>
       </c>
-      <c r="HR14" s="57">
+      <c r="HR14" s="26">
         <v>223</v>
       </c>
-      <c r="HS14" s="57">
+      <c r="HS14" s="26">
         <v>224</v>
       </c>
-      <c r="HT14" s="57">
+      <c r="HT14" s="26">
         <v>225</v>
       </c>
-      <c r="HU14" s="57">
+      <c r="HU14" s="26">
         <v>226</v>
       </c>
-      <c r="HV14" s="57">
+      <c r="HV14" s="26">
         <v>227</v>
       </c>
-      <c r="HW14" s="57">
+      <c r="HW14" s="26">
         <v>228</v>
       </c>
-      <c r="HX14" s="57">
+      <c r="HX14" s="26">
         <v>229</v>
       </c>
-      <c r="HY14" s="57">
+      <c r="HY14" s="26">
         <v>230</v>
       </c>
-      <c r="HZ14" s="57">
+      <c r="HZ14" s="26">
         <v>231</v>
       </c>
-      <c r="IA14" s="57">
+      <c r="IA14" s="26">
         <v>232</v>
       </c>
-      <c r="IB14" s="57">
+      <c r="IB14" s="26">
         <v>233</v>
       </c>
-      <c r="IC14" s="57">
+      <c r="IC14" s="26">
         <v>234</v>
       </c>
-      <c r="ID14" s="57">
+      <c r="ID14" s="26">
         <v>235</v>
       </c>
-      <c r="IE14" s="57">
+      <c r="IE14" s="26">
         <v>236</v>
       </c>
-      <c r="IF14" s="57">
+      <c r="IF14" s="26">
         <v>237</v>
       </c>
-      <c r="IG14" s="57">
+      <c r="IG14" s="26">
         <v>238</v>
       </c>
-      <c r="IH14" s="57">
+      <c r="IH14" s="26">
         <v>239</v>
       </c>
-      <c r="II14" s="57">
+      <c r="II14" s="26">
         <v>240</v>
       </c>
-      <c r="IJ14" s="57">
+      <c r="IJ14" s="26">
         <v>241</v>
       </c>
-      <c r="IK14" s="57">
+      <c r="IK14" s="26">
         <v>242</v>
       </c>
-      <c r="IL14" s="57">
+      <c r="IL14" s="26">
         <v>243</v>
       </c>
-      <c r="IM14" s="57">
+      <c r="IM14" s="26">
         <v>244</v>
       </c>
-      <c r="IN14" s="57">
+      <c r="IN14" s="26">
         <v>245</v>
       </c>
-      <c r="IO14" s="57">
+      <c r="IO14" s="26">
         <v>246</v>
       </c>
-      <c r="IP14" s="57">
+      <c r="IP14" s="26">
         <v>247</v>
       </c>
-      <c r="IQ14" s="57">
+      <c r="IQ14" s="26">
         <v>248</v>
       </c>
-      <c r="IR14" s="57">
+      <c r="IR14" s="26">
         <v>249</v>
       </c>
-      <c r="IS14" s="57">
+      <c r="IS14" s="26">
         <v>250</v>
       </c>
-      <c r="IT14" s="57">
+      <c r="IT14" s="26">
         <v>251</v>
       </c>
-      <c r="IU14" s="57">
+      <c r="IU14" s="26">
         <v>252</v>
       </c>
-      <c r="IV14" s="57">
+      <c r="IV14" s="26">
         <v>253</v>
       </c>
-      <c r="IW14" s="57">
+      <c r="IW14" s="26">
         <v>254</v>
       </c>
-      <c r="IX14" s="57">
+      <c r="IX14" s="26">
         <v>255</v>
       </c>
-      <c r="IY14" s="57">
+      <c r="IY14" s="26">
         <v>256</v>
       </c>
-      <c r="IZ14" s="57">
+      <c r="IZ14" s="26">
         <v>257</v>
       </c>
-      <c r="JA14" s="57">
+      <c r="JA14" s="26">
         <v>258</v>
       </c>
-      <c r="JB14" s="57">
+      <c r="JB14" s="26">
         <v>259</v>
       </c>
-      <c r="JC14" s="57">
+      <c r="JC14" s="26">
         <v>260</v>
       </c>
-      <c r="JD14" s="57">
+      <c r="JD14" s="26">
         <v>261</v>
       </c>
-      <c r="JE14" s="57">
+      <c r="JE14" s="26">
         <v>262</v>
       </c>
-      <c r="JF14" s="57">
+      <c r="JF14" s="26">
         <v>263</v>
       </c>
-      <c r="JG14" s="57">
+      <c r="JG14" s="26">
         <v>264</v>
       </c>
-      <c r="JH14" s="57">
+      <c r="JH14" s="26">
         <v>265</v>
       </c>
-      <c r="JI14" s="57">
+      <c r="JI14" s="26">
         <v>266</v>
       </c>
-      <c r="JJ14" s="57">
+      <c r="JJ14" s="26">
         <v>267</v>
       </c>
-      <c r="JK14" s="57">
+      <c r="JK14" s="26">
         <v>268</v>
       </c>
-      <c r="JL14" s="57">
+      <c r="JL14" s="26">
         <v>269</v>
       </c>
-      <c r="JM14" s="57">
+      <c r="JM14" s="26">
         <v>270</v>
       </c>
-      <c r="JN14" s="57">
+      <c r="JN14" s="26">
         <v>271</v>
       </c>
-      <c r="JO14" s="57">
+      <c r="JO14" s="26">
         <v>272</v>
       </c>
-      <c r="JP14" s="57">
+      <c r="JP14" s="26">
         <v>273</v>
       </c>
-      <c r="JQ14" s="57">
+      <c r="JQ14" s="26">
         <v>274</v>
       </c>
-      <c r="JR14" s="57">
+      <c r="JR14" s="26">
         <v>275</v>
       </c>
-      <c r="JS14" s="57">
+      <c r="JS14" s="26">
         <v>276</v>
       </c>
-      <c r="JT14" s="57">
+      <c r="JT14" s="26">
         <v>277</v>
       </c>
-      <c r="JU14" s="57">
+      <c r="JU14" s="26">
         <v>278</v>
       </c>
-      <c r="JV14" s="57">
+      <c r="JV14" s="26">
         <v>279</v>
       </c>
-      <c r="JW14" s="57">
+      <c r="JW14" s="26">
         <v>280</v>
       </c>
-      <c r="JX14" s="57">
+      <c r="JX14" s="26">
         <v>281</v>
       </c>
-      <c r="JY14" s="57">
+      <c r="JY14" s="26">
         <v>282</v>
       </c>
-      <c r="JZ14" s="57">
+      <c r="JZ14" s="26">
         <v>283</v>
       </c>
-      <c r="KA14" s="57">
+      <c r="KA14" s="26">
         <v>284</v>
       </c>
-      <c r="KB14" s="57">
+      <c r="KB14" s="26">
         <v>285</v>
       </c>
-      <c r="KC14" s="57">
+      <c r="KC14" s="26">
         <v>286</v>
       </c>
-      <c r="KD14" s="57">
+      <c r="KD14" s="26">
         <v>287</v>
       </c>
-      <c r="KE14" s="57">
+      <c r="KE14" s="26">
         <v>288</v>
       </c>
-      <c r="KF14" s="57">
+      <c r="KF14" s="26">
         <v>289</v>
       </c>
-      <c r="KG14" s="57">
+      <c r="KG14" s="26">
         <v>290</v>
       </c>
-      <c r="KH14" s="57">
+      <c r="KH14" s="26">
         <v>291</v>
       </c>
-      <c r="KI14" s="57">
+      <c r="KI14" s="26">
         <v>292</v>
       </c>
-      <c r="KJ14" s="57">
+      <c r="KJ14" s="26">
         <v>293</v>
       </c>
-      <c r="KK14" s="57">
+      <c r="KK14" s="26">
         <v>294</v>
       </c>
-      <c r="KL14" s="57">
+      <c r="KL14" s="26">
         <v>295</v>
       </c>
-      <c r="KM14" s="57">
+      <c r="KM14" s="26">
         <v>296</v>
       </c>
-      <c r="KN14" s="57">
+      <c r="KN14" s="26">
         <v>297</v>
       </c>
-      <c r="KO14" s="57">
+      <c r="KO14" s="26">
         <v>298</v>
       </c>
-      <c r="KP14" s="57">
+      <c r="KP14" s="26">
         <v>299</v>
       </c>
-      <c r="KQ14" s="57">
+      <c r="KQ14" s="26">
         <v>300</v>
       </c>
-      <c r="KR14" s="57">
+      <c r="KR14" s="26">
         <v>301</v>
       </c>
-      <c r="KS14" s="57">
+      <c r="KS14" s="26">
         <v>302</v>
       </c>
-      <c r="KT14" s="57">
+      <c r="KT14" s="26">
         <v>303</v>
       </c>
-      <c r="KU14" s="57">
+      <c r="KU14" s="26">
         <v>304</v>
       </c>
-      <c r="KV14" s="57">
+      <c r="KV14" s="26">
         <v>305</v>
       </c>
-      <c r="KW14" s="57">
+      <c r="KW14" s="26">
         <v>306</v>
       </c>
-      <c r="KX14" s="57">
+      <c r="KX14" s="26">
         <v>307</v>
       </c>
-      <c r="KY14" s="57">
+      <c r="KY14" s="26">
         <v>308</v>
       </c>
-      <c r="KZ14" s="57">
+      <c r="KZ14" s="26">
         <v>309</v>
       </c>
-      <c r="LA14" s="57">
+      <c r="LA14" s="26">
         <v>310</v>
       </c>
-      <c r="LB14" s="57">
+      <c r="LB14" s="26">
         <v>311</v>
       </c>
-      <c r="LC14" s="57">
+      <c r="LC14" s="26">
         <v>312</v>
       </c>
-      <c r="LD14" s="57">
+      <c r="LD14" s="26">
         <v>313</v>
       </c>
-      <c r="LE14" s="57">
+      <c r="LE14" s="26">
         <v>314</v>
       </c>
-      <c r="LF14" s="57">
+      <c r="LF14" s="26">
         <v>315</v>
       </c>
-      <c r="LG14" s="57">
+      <c r="LG14" s="26">
         <v>316</v>
       </c>
-      <c r="LH14" s="57">
+      <c r="LH14" s="26">
         <v>317</v>
       </c>
-      <c r="LI14" s="57">
+      <c r="LI14" s="26">
         <v>318</v>
       </c>
-      <c r="LJ14" s="57">
+      <c r="LJ14" s="26">
         <v>319</v>
       </c>
-      <c r="LK14" s="57">
+      <c r="LK14" s="26">
         <v>320</v>
       </c>
-      <c r="LL14" s="57">
+      <c r="LL14" s="26">
         <v>321</v>
       </c>
-      <c r="LM14" s="57">
+      <c r="LM14" s="26">
         <v>322</v>
       </c>
-      <c r="LN14" s="57">
+      <c r="LN14" s="26">
         <v>323</v>
       </c>
-      <c r="LO14" s="57">
+      <c r="LO14" s="26">
         <v>324</v>
       </c>
-      <c r="LP14" s="57">
+      <c r="LP14" s="26">
         <v>325</v>
       </c>
-      <c r="LQ14" s="57">
+      <c r="LQ14" s="26">
         <v>326</v>
       </c>
-      <c r="LR14" s="57">
+      <c r="LR14" s="26">
         <v>327</v>
       </c>
-      <c r="LS14" s="57">
+      <c r="LS14" s="26">
         <v>328</v>
       </c>
-      <c r="LT14" s="57">
+      <c r="LT14" s="26">
         <v>329</v>
       </c>
-      <c r="LU14" s="57">
+      <c r="LU14" s="26">
         <v>330</v>
       </c>
-      <c r="LV14" s="57">
+      <c r="LV14" s="26">
         <v>331</v>
       </c>
-      <c r="LW14" s="57">
+      <c r="LW14" s="26">
         <v>332</v>
       </c>
-      <c r="LX14" s="57">
+      <c r="LX14" s="26">
         <v>333</v>
       </c>
-      <c r="LY14" s="57">
+      <c r="LY14" s="26">
         <v>334</v>
       </c>
-      <c r="LZ14" s="57">
+      <c r="LZ14" s="26">
         <v>335</v>
       </c>
-      <c r="MA14" s="57">
+      <c r="MA14" s="26">
         <v>336</v>
       </c>
-      <c r="MB14" s="57">
+      <c r="MB14" s="26">
         <v>337</v>
       </c>
-      <c r="MC14" s="57">
+      <c r="MC14" s="26">
         <v>338</v>
       </c>
-      <c r="MD14" s="57">
+      <c r="MD14" s="26">
         <v>339</v>
       </c>
-      <c r="ME14" s="57">
+      <c r="ME14" s="26">
         <v>340</v>
       </c>
-      <c r="MF14" s="57">
+      <c r="MF14" s="26">
         <v>341</v>
       </c>
-      <c r="MG14" s="57">
+      <c r="MG14" s="26">
         <v>342</v>
       </c>
-      <c r="MH14" s="57">
+      <c r="MH14" s="26">
         <v>343</v>
       </c>
-      <c r="MI14" s="57">
+      <c r="MI14" s="26">
         <v>344</v>
       </c>
-      <c r="MJ14" s="57">
+      <c r="MJ14" s="26">
         <v>345</v>
       </c>
-      <c r="MK14" s="57">
+      <c r="MK14" s="26">
         <v>346</v>
       </c>
-      <c r="ML14" s="57">
+      <c r="ML14" s="26">
         <v>347</v>
       </c>
-      <c r="MM14" s="57">
+      <c r="MM14" s="26">
         <v>348</v>
       </c>
-      <c r="MN14" s="57">
+      <c r="MN14" s="26">
         <v>349</v>
       </c>
-      <c r="MO14" s="57">
+      <c r="MO14" s="26">
         <v>350</v>
       </c>
-      <c r="MP14" s="57">
+      <c r="MP14" s="26">
         <v>351</v>
       </c>
-      <c r="MQ14" s="57">
+      <c r="MQ14" s="26">
         <v>352</v>
       </c>
-      <c r="MR14" s="57">
+      <c r="MR14" s="26">
         <v>353</v>
       </c>
-      <c r="MS14" s="57">
+      <c r="MS14" s="26">
         <v>354</v>
       </c>
-      <c r="MT14" s="57">
+      <c r="MT14" s="26">
         <v>355</v>
       </c>
-      <c r="MU14" s="57">
+      <c r="MU14" s="26">
         <v>356</v>
       </c>
-      <c r="MV14" s="57">
+      <c r="MV14" s="26">
         <v>357</v>
       </c>
-      <c r="MW14" s="57">
+      <c r="MW14" s="26">
         <v>358</v>
       </c>
-      <c r="MX14" s="57">
+      <c r="MX14" s="26">
         <v>359</v>
       </c>
-      <c r="MY14" s="57">
+      <c r="MY14" s="26">
         <v>360</v>
       </c>
-      <c r="MZ14" s="57">
+      <c r="MZ14" s="26">
         <v>361</v>
       </c>
-      <c r="NA14" s="57">
+      <c r="NA14" s="26">
         <v>362</v>
       </c>
-      <c r="NB14" s="57">
+      <c r="NB14" s="26">
         <v>363</v>
       </c>
-      <c r="NC14" s="57">
+      <c r="NC14" s="26">
         <v>364</v>
       </c>
-      <c r="ND14" s="57">
+      <c r="ND14" s="26">
         <v>365</v>
       </c>
-      <c r="NE14" s="57">
+      <c r="NE14" s="26">
         <v>366</v>
       </c>
-      <c r="NF14" s="57">
+      <c r="NF14" s="26">
         <v>367</v>
       </c>
-      <c r="NG14" s="57">
+      <c r="NG14" s="26">
         <v>368</v>
       </c>
-      <c r="NH14" s="57">
+      <c r="NH14" s="26">
         <v>369</v>
       </c>
-      <c r="NI14" s="57">
+      <c r="NI14" s="26">
         <v>370</v>
       </c>
-      <c r="NJ14" s="57">
+      <c r="NJ14" s="26">
         <v>371</v>
       </c>
-      <c r="NK14" s="57">
+      <c r="NK14" s="26">
         <v>372</v>
       </c>
-      <c r="NL14" s="57">
+      <c r="NL14" s="26">
         <v>373</v>
       </c>
-      <c r="NM14" s="57">
+      <c r="NM14" s="26">
         <v>374</v>
       </c>
-      <c r="NN14" s="57">
+      <c r="NN14" s="26">
         <v>375</v>
       </c>
-      <c r="NO14" s="57">
+      <c r="NO14" s="26">
         <v>376</v>
       </c>
-      <c r="NP14" s="57">
+      <c r="NP14" s="26">
         <v>377</v>
       </c>
-      <c r="NQ14" s="57">
+      <c r="NQ14" s="26">
         <v>378</v>
       </c>
-      <c r="NR14" s="57">
+      <c r="NR14" s="26">
         <v>379</v>
       </c>
-      <c r="NS14" s="57">
+      <c r="NS14" s="26">
         <v>380</v>
       </c>
-      <c r="NT14" s="57">
+      <c r="NT14" s="26">
         <v>381</v>
       </c>
-      <c r="NU14" s="57">
+      <c r="NU14" s="26">
         <v>382</v>
       </c>
-      <c r="NV14" s="57">
+      <c r="NV14" s="26">
         <v>383</v>
       </c>
-      <c r="NW14" s="57">
+      <c r="NW14" s="26">
         <v>384</v>
       </c>
-      <c r="NX14" s="57">
+      <c r="NX14" s="26">
         <v>385</v>
       </c>
-      <c r="NY14" s="57">
+      <c r="NY14" s="26">
         <v>386</v>
       </c>
-      <c r="NZ14" s="57">
+      <c r="NZ14" s="26">
         <v>387</v>
       </c>
-      <c r="OA14" s="57">
+      <c r="OA14" s="26">
         <v>388</v>
       </c>
-      <c r="OB14" s="57">
+      <c r="OB14" s="26">
         <v>389</v>
       </c>
-      <c r="OC14" s="57">
+      <c r="OC14" s="26">
         <v>390</v>
       </c>
-      <c r="OD14" s="57">
+      <c r="OD14" s="26">
         <v>391</v>
       </c>
-      <c r="OE14" s="57">
+      <c r="OE14" s="26">
         <v>392</v>
       </c>
-      <c r="OF14" s="57">
+      <c r="OF14" s="26">
         <v>393</v>
       </c>
-      <c r="OG14" s="57">
+      <c r="OG14" s="26">
         <v>394</v>
       </c>
-      <c r="OH14" s="57">
+      <c r="OH14" s="26">
         <v>395</v>
       </c>
-      <c r="OI14" s="57">
+      <c r="OI14" s="26">
         <v>396</v>
       </c>
-      <c r="OJ14" s="57">
+      <c r="OJ14" s="26">
         <v>397</v>
       </c>
-      <c r="OK14" s="57">
+      <c r="OK14" s="26">
         <v>398</v>
       </c>
-      <c r="OL14" s="57">
+      <c r="OL14" s="26">
         <v>399</v>
       </c>
-      <c r="OM14" s="57">
+      <c r="OM14" s="26">
         <v>400</v>
       </c>
-      <c r="ON14" s="57">
+      <c r="ON14" s="26">
         <v>401</v>
       </c>
-      <c r="OO14" s="57">
+      <c r="OO14" s="26">
         <v>402</v>
       </c>
-      <c r="OP14" s="57">
+      <c r="OP14" s="26">
         <v>403</v>
       </c>
-      <c r="OQ14" s="57">
+      <c r="OQ14" s="26">
         <v>404</v>
       </c>
-      <c r="OR14" s="57">
+      <c r="OR14" s="26">
         <v>405</v>
       </c>
-      <c r="OS14" s="57">
+      <c r="OS14" s="26">
         <v>406</v>
       </c>
-      <c r="OT14" s="57">
+      <c r="OT14" s="26">
         <v>407</v>
       </c>
-      <c r="OU14" s="57">
+      <c r="OU14" s="26">
         <v>408</v>
       </c>
-      <c r="OV14" s="57">
+      <c r="OV14" s="26">
         <v>409</v>
       </c>
-      <c r="OW14" s="57">
+      <c r="OW14" s="26">
         <v>410</v>
       </c>
-      <c r="OX14" s="57">
+      <c r="OX14" s="26">
         <v>411</v>
       </c>
-      <c r="OY14" s="57">
+      <c r="OY14" s="26">
         <v>412</v>
       </c>
-      <c r="OZ14" s="57">
+      <c r="OZ14" s="26">
         <v>413</v>
       </c>
-      <c r="PA14" s="57">
+      <c r="PA14" s="26">
         <v>414</v>
       </c>
-      <c r="PB14" s="57">
+      <c r="PB14" s="26">
         <v>415</v>
       </c>
-      <c r="PC14" s="57">
+      <c r="PC14" s="26">
         <v>416</v>
       </c>
-      <c r="PD14" s="57">
+      <c r="PD14" s="26">
         <v>417</v>
       </c>
-      <c r="PE14" s="57">
+      <c r="PE14" s="26">
         <v>418</v>
       </c>
-      <c r="PF14" s="57">
+      <c r="PF14" s="26">
         <v>419</v>
       </c>
-      <c r="PG14" s="57">
+      <c r="PG14" s="26">
         <v>420</v>
       </c>
-      <c r="PH14" s="57">
+      <c r="PH14" s="26">
         <v>421</v>
       </c>
-      <c r="PI14" s="57">
+      <c r="PI14" s="26">
         <v>422</v>
       </c>
-      <c r="PJ14" s="57">
+      <c r="PJ14" s="26">
         <v>423</v>
       </c>
-      <c r="PK14" s="57">
+      <c r="PK14" s="26">
         <v>424</v>
       </c>
-      <c r="PL14" s="57">
+      <c r="PL14" s="26">
         <v>425</v>
       </c>
-      <c r="PM14" s="57">
+      <c r="PM14" s="26">
         <v>426</v>
       </c>
-      <c r="PN14" s="57">
+      <c r="PN14" s="26">
         <v>427</v>
       </c>
-      <c r="PO14" s="57">
+      <c r="PO14" s="26">
         <v>428</v>
       </c>
-      <c r="PP14" s="57">
+      <c r="PP14" s="26">
         <v>429</v>
       </c>
-      <c r="PQ14" s="57">
+      <c r="PQ14" s="26">
         <v>430</v>
       </c>
-      <c r="PR14" s="57">
+      <c r="PR14" s="26">
         <v>431</v>
       </c>
-      <c r="PS14" s="57">
+      <c r="PS14" s="26">
         <v>432</v>
       </c>
-      <c r="PT14" s="57">
+      <c r="PT14" s="26">
         <v>433</v>
       </c>
-      <c r="PU14" s="57">
+      <c r="PU14" s="26">
         <v>434</v>
       </c>
-      <c r="PV14" s="57">
+      <c r="PV14" s="26">
         <v>435</v>
       </c>
-      <c r="PW14" s="57">
+      <c r="PW14" s="26">
         <v>436</v>
       </c>
-      <c r="PX14" s="57">
+      <c r="PX14" s="26">
         <v>437</v>
       </c>
-      <c r="PY14" s="57">
+      <c r="PY14" s="26">
         <v>438</v>
       </c>
-      <c r="PZ14" s="57">
+      <c r="PZ14" s="26">
         <v>439</v>
       </c>
-      <c r="QA14" s="57">
+      <c r="QA14" s="26">
         <v>440</v>
       </c>
-      <c r="QB14" s="57">
+      <c r="QB14" s="26">
         <v>441</v>
       </c>
-      <c r="QC14" s="57">
+      <c r="QC14" s="26">
         <v>442</v>
       </c>
-      <c r="QD14" s="57">
+      <c r="QD14" s="26">
         <v>443</v>
       </c>
-      <c r="QE14" s="57">
+      <c r="QE14" s="26">
         <v>444</v>
       </c>
-      <c r="QF14" s="57">
+      <c r="QF14" s="26">
         <v>445</v>
       </c>
-      <c r="QG14" s="57">
+      <c r="QG14" s="26">
         <v>446</v>
       </c>
-      <c r="QH14" s="57">
+      <c r="QH14" s="26">
         <v>447</v>
       </c>
-      <c r="QI14" s="57">
+      <c r="QI14" s="26">
         <v>448</v>
       </c>
-      <c r="QJ14" s="57">
+      <c r="QJ14" s="26">
         <v>449</v>
       </c>
-      <c r="QK14" s="57">
+      <c r="QK14" s="26">
         <v>450</v>
       </c>
-      <c r="QL14" s="57">
+      <c r="QL14" s="26">
         <v>451</v>
       </c>
-      <c r="QM14" s="57">
+      <c r="QM14" s="26">
         <v>452</v>
       </c>
-      <c r="QN14" s="57">
+      <c r="QN14" s="26">
         <v>453</v>
       </c>
-      <c r="QO14" s="57">
+      <c r="QO14" s="26">
         <v>454</v>
       </c>
-      <c r="QP14" s="57">
+      <c r="QP14" s="26">
         <v>455</v>
       </c>
-      <c r="QQ14" s="57">
+      <c r="QQ14" s="26">
         <v>456</v>
       </c>
-      <c r="QR14" s="57">
+      <c r="QR14" s="26">
         <v>457</v>
       </c>
-      <c r="QS14" s="57">
+      <c r="QS14" s="26">
         <v>458</v>
       </c>
-      <c r="QT14" s="57">
+      <c r="QT14" s="26">
         <v>459</v>
       </c>
-      <c r="QU14" s="57">
+      <c r="QU14" s="26">
         <v>460</v>
       </c>
-      <c r="QV14" s="57">
+      <c r="QV14" s="26">
         <v>461</v>
       </c>
-      <c r="QW14" s="57">
+      <c r="QW14" s="26">
         <v>462</v>
       </c>
-      <c r="QX14" s="57">
+      <c r="QX14" s="26">
         <v>463</v>
       </c>
-      <c r="QY14" s="57">
+      <c r="QY14" s="26">
         <v>464</v>
       </c>
-      <c r="QZ14" s="57">
+      <c r="QZ14" s="26">
         <v>465</v>
       </c>
-      <c r="RA14" s="57">
+      <c r="RA14" s="26">
         <v>466</v>
       </c>
-      <c r="RB14" s="57">
+      <c r="RB14" s="26">
         <v>467</v>
       </c>
-      <c r="RC14" s="57">
+      <c r="RC14" s="26">
         <v>468</v>
       </c>
-      <c r="RD14" s="57">
+      <c r="RD14" s="26">
         <v>469</v>
       </c>
-      <c r="RE14" s="57">
+      <c r="RE14" s="26">
         <v>470</v>
       </c>
-      <c r="RF14" s="57">
+      <c r="RF14" s="26">
         <v>471</v>
       </c>
-      <c r="RG14" s="57">
+      <c r="RG14" s="26">
         <v>472</v>
       </c>
-      <c r="RH14" s="57">
+      <c r="RH14" s="26">
         <v>473</v>
       </c>
-      <c r="RI14" s="57">
+      <c r="RI14" s="26">
         <v>474</v>
       </c>
-      <c r="RJ14" s="57">
+      <c r="RJ14" s="26">
         <v>475</v>
       </c>
-      <c r="RK14" s="57">
+      <c r="RK14" s="26">
         <v>476</v>
       </c>
-      <c r="RL14" s="57">
+      <c r="RL14" s="26">
         <v>477</v>
       </c>
-      <c r="RM14" s="57">
+      <c r="RM14" s="26">
         <v>478</v>
       </c>
-      <c r="RN14" s="57">
+      <c r="RN14" s="26">
         <v>479</v>
       </c>
-      <c r="RO14" s="57">
+      <c r="RO14" s="26">
         <v>480</v>
       </c>
-      <c r="RP14" s="57">
+      <c r="RP14" s="26">
         <v>481</v>
       </c>
-      <c r="RQ14" s="57">
+      <c r="RQ14" s="26">
         <v>482</v>
       </c>
-      <c r="RR14" s="57">
+      <c r="RR14" s="26">
         <v>483</v>
       </c>
-      <c r="RS14" s="57">
+      <c r="RS14" s="26">
         <v>484</v>
       </c>
-      <c r="RT14" s="57">
+      <c r="RT14" s="26">
         <v>485</v>
       </c>
-      <c r="RU14" s="57">
+      <c r="RU14" s="26">
         <v>486</v>
       </c>
-      <c r="RV14" s="57">
+      <c r="RV14" s="26">
         <v>487</v>
       </c>
-      <c r="RW14" s="57">
+      <c r="RW14" s="26">
         <v>488</v>
       </c>
-      <c r="RX14" s="57">
+      <c r="RX14" s="26">
         <v>489</v>
       </c>
-      <c r="RY14" s="57">
+      <c r="RY14" s="26">
         <v>490</v>
       </c>
-      <c r="RZ14" s="57">
+      <c r="RZ14" s="26">
         <v>491</v>
       </c>
-      <c r="SA14" s="57">
+      <c r="SA14" s="26">
         <v>492</v>
       </c>
-      <c r="SB14" s="57">
+      <c r="SB14" s="26">
         <v>493</v>
       </c>
-      <c r="SC14" s="57">
+      <c r="SC14" s="26">
         <v>494</v>
       </c>
-      <c r="SD14" s="57">
+      <c r="SD14" s="26">
         <v>495</v>
       </c>
-      <c r="SE14" s="57">
+      <c r="SE14" s="26">
         <v>496</v>
       </c>
-      <c r="SF14" s="57">
+      <c r="SF14" s="26">
         <v>497</v>
       </c>
-      <c r="SG14" s="57">
+      <c r="SG14" s="26">
         <v>498</v>
       </c>
-      <c r="SH14" s="57">
+      <c r="SH14" s="26">
         <v>499</v>
       </c>
-      <c r="SI14" s="57">
+      <c r="SI14" s="26">
         <v>500</v>
       </c>
-      <c r="SJ14" s="57">
+      <c r="SJ14" s="26">
         <v>501</v>
       </c>
-      <c r="SK14" s="57">
+      <c r="SK14" s="26">
         <v>502</v>
       </c>
-      <c r="SL14" s="57">
+      <c r="SL14" s="26">
         <v>503</v>
       </c>
-      <c r="SM14" s="57">
+      <c r="SM14" s="26">
         <v>504</v>
       </c>
-      <c r="SN14" s="57">
+      <c r="SN14" s="26">
         <v>505</v>
       </c>
-      <c r="SO14" s="57">
+      <c r="SO14" s="26">
         <v>506</v>
       </c>
-      <c r="SP14" s="57">
+      <c r="SP14" s="26">
         <v>507</v>
       </c>
-      <c r="SQ14" s="57">
+      <c r="SQ14" s="26">
         <v>508</v>
       </c>
-      <c r="SR14" s="57">
+      <c r="SR14" s="26">
         <v>509</v>
       </c>
-      <c r="SS14" s="57">
+      <c r="SS14" s="26">
         <v>510</v>
       </c>
-      <c r="ST14" s="57">
+      <c r="ST14" s="26">
         <v>511</v>
       </c>
-      <c r="SU14" s="57">
+      <c r="SU14" s="26">
         <v>512</v>
       </c>
-      <c r="SV14" s="57">
+      <c r="SV14" s="26">
         <v>513</v>
       </c>
-      <c r="SW14" s="57">
+      <c r="SW14" s="26">
         <v>514</v>
       </c>
-      <c r="SX14" s="57">
+      <c r="SX14" s="26">
         <v>515</v>
       </c>
-      <c r="SY14" s="57">
+      <c r="SY14" s="26">
         <v>516</v>
       </c>
-      <c r="SZ14" s="57">
+      <c r="SZ14" s="26">
         <v>517</v>
       </c>
-      <c r="TA14" s="57">
+      <c r="TA14" s="26">
         <v>518</v>
       </c>
-      <c r="TB14" s="57">
+      <c r="TB14" s="26">
         <v>519</v>
       </c>
-      <c r="TC14" s="57">
+      <c r="TC14" s="26">
         <v>520</v>
       </c>
-      <c r="TD14" s="57">
+      <c r="TD14" s="26">
         <v>521</v>
       </c>
-      <c r="TE14" s="57">
+      <c r="TE14" s="26">
         <v>522</v>
       </c>
-      <c r="TF14" s="57">
+      <c r="TF14" s="26">
         <v>523</v>
       </c>
-      <c r="TG14" s="57">
+      <c r="TG14" s="26">
         <v>524</v>
       </c>
-      <c r="TH14" s="57">
+      <c r="TH14" s="26">
         <v>525</v>
       </c>
-      <c r="TI14" s="57">
+      <c r="TI14" s="26">
         <v>526</v>
       </c>
-      <c r="TJ14" s="57">
+      <c r="TJ14" s="26">
         <v>527</v>
       </c>
-      <c r="TK14" s="57">
+      <c r="TK14" s="26">
         <v>528</v>
       </c>
-      <c r="TL14" s="57">
+      <c r="TL14" s="26">
         <v>529</v>
       </c>
-      <c r="TM14" s="57">
+      <c r="TM14" s="26">
         <v>530</v>
       </c>
-      <c r="TN14" s="57">
+      <c r="TN14" s="26">
         <v>531</v>
       </c>
-      <c r="TO14" s="57">
+      <c r="TO14" s="26">
         <v>532</v>
       </c>
-      <c r="TP14" s="57">
+      <c r="TP14" s="26">
         <v>533</v>
       </c>
-      <c r="TQ14" s="57">
+      <c r="TQ14" s="26">
         <v>534</v>
       </c>
-      <c r="TR14" s="57">
+      <c r="TR14" s="26">
         <v>535</v>
       </c>
-      <c r="TS14" s="57">
+      <c r="TS14" s="26">
         <v>536</v>
       </c>
-      <c r="TT14" s="57">
+      <c r="TT14" s="26">
         <v>537</v>
       </c>
-      <c r="TU14" s="57">
+      <c r="TU14" s="26">
         <v>538</v>
       </c>
-      <c r="TV14" s="57">
+      <c r="TV14" s="26">
         <v>539</v>
       </c>
-      <c r="TW14" s="57">
+      <c r="TW14" s="26">
         <v>540</v>
       </c>
-      <c r="TX14" s="57">
+      <c r="TX14" s="26">
         <v>541</v>
       </c>
-      <c r="TY14" s="57">
+      <c r="TY14" s="26">
         <v>542</v>
       </c>
-      <c r="TZ14" s="57">
+      <c r="TZ14" s="26">
         <v>543</v>
       </c>
-      <c r="UA14" s="57">
+      <c r="UA14" s="26">
         <v>544</v>
       </c>
-      <c r="UB14" s="57">
+      <c r="UB14" s="26">
         <v>545</v>
       </c>
-      <c r="UC14" s="57">
+      <c r="UC14" s="26">
         <v>546</v>
       </c>
-      <c r="UD14" s="57">
+      <c r="UD14" s="26">
         <v>547</v>
       </c>
-      <c r="UE14" s="57">
+      <c r="UE14" s="26">
         <v>548</v>
       </c>
-      <c r="UF14" s="57">
+      <c r="UF14" s="26">
         <v>549</v>
       </c>
-      <c r="UG14" s="57">
+      <c r="UG14" s="26">
         <v>550</v>
       </c>
-      <c r="UH14" s="57">
+      <c r="UH14" s="26">
         <v>551</v>
       </c>
-      <c r="UI14" s="57">
+      <c r="UI14" s="26">
         <v>552</v>
       </c>
-      <c r="UJ14" s="57">
+      <c r="UJ14" s="26">
         <v>553</v>
       </c>
-      <c r="UK14" s="57">
+      <c r="UK14" s="26">
         <v>554</v>
       </c>
-      <c r="UL14" s="57">
+      <c r="UL14" s="26">
         <v>555</v>
       </c>
-      <c r="UM14" s="57">
+      <c r="UM14" s="26">
         <v>556</v>
       </c>
-      <c r="UN14" s="57">
+      <c r="UN14" s="26">
         <v>557</v>
       </c>
-      <c r="UO14" s="57">
+      <c r="UO14" s="26">
         <v>558</v>
       </c>
-      <c r="UP14" s="57">
+      <c r="UP14" s="26">
         <v>559</v>
       </c>
-      <c r="UQ14" s="57">
+      <c r="UQ14" s="26">
         <v>560</v>
       </c>
-      <c r="UR14" s="57">
+      <c r="UR14" s="26">
         <v>561</v>
       </c>
-      <c r="US14" s="57">
+      <c r="US14" s="26">
         <v>562</v>
       </c>
-      <c r="UT14" s="57">
+      <c r="UT14" s="26">
         <v>563</v>
       </c>
-      <c r="UU14" s="57">
+      <c r="UU14" s="26">
         <v>564</v>
       </c>
-      <c r="UV14" s="57">
+      <c r="UV14" s="26">
         <v>565</v>
       </c>
-      <c r="UW14" s="57">
+      <c r="UW14" s="26">
         <v>566</v>
       </c>
-      <c r="UX14" s="57">
+      <c r="UX14" s="26">
         <v>567</v>
       </c>
-      <c r="UY14" s="57">
+      <c r="UY14" s="26">
         <v>568</v>
       </c>
-      <c r="UZ14" s="57">
+      <c r="UZ14" s="26">
         <v>569</v>
       </c>
-      <c r="VA14" s="57">
+      <c r="VA14" s="26">
         <v>570</v>
       </c>
-      <c r="VB14" s="57">
+      <c r="VB14" s="26">
         <v>571</v>
       </c>
-      <c r="VC14" s="57">
+      <c r="VC14" s="26">
         <v>572</v>
       </c>
-      <c r="VD14" s="57">
+      <c r="VD14" s="26">
         <v>573</v>
       </c>
-      <c r="VE14" s="57">
+      <c r="VE14" s="26">
         <v>574</v>
       </c>
-      <c r="VF14" s="57">
+      <c r="VF14" s="26">
         <v>575</v>
       </c>
-      <c r="VG14" s="57">
+      <c r="VG14" s="26">
         <v>576</v>
       </c>
-      <c r="VH14" s="57">
+      <c r="VH14" s="26">
         <v>577</v>
       </c>
-      <c r="VI14" s="57">
+      <c r="VI14" s="26">
         <v>578</v>
       </c>
-      <c r="VJ14" s="57">
+      <c r="VJ14" s="26">
         <v>579</v>
       </c>
-      <c r="VK14" s="57">
+      <c r="VK14" s="26">
         <v>580</v>
       </c>
-      <c r="VL14" s="57">
+      <c r="VL14" s="26">
         <v>581</v>
       </c>
-      <c r="VM14" s="57">
+      <c r="VM14" s="26">
         <v>582</v>
       </c>
-      <c r="VN14" s="57">
+      <c r="VN14" s="26">
         <v>583</v>
       </c>
-      <c r="VO14" s="57">
+      <c r="VO14" s="26">
         <v>584</v>
       </c>
-      <c r="VP14" s="57">
+      <c r="VP14" s="26">
         <v>585</v>
       </c>
-      <c r="VQ14" s="57">
+      <c r="VQ14" s="26">
         <v>586</v>
       </c>
-      <c r="VR14" s="57">
+      <c r="VR14" s="26">
         <v>587</v>
       </c>
-      <c r="VS14" s="57">
+      <c r="VS14" s="26">
         <v>588</v>
       </c>
-      <c r="VT14" s="57">
+      <c r="VT14" s="26">
         <v>589</v>
       </c>
-      <c r="VU14" s="57">
+      <c r="VU14" s="26">
         <v>590</v>
       </c>
-      <c r="VV14" s="57">
+      <c r="VV14" s="26">
         <v>591</v>
       </c>
-      <c r="VW14" s="57">
+      <c r="VW14" s="26">
         <v>592</v>
       </c>
-      <c r="VX14" s="57">
+      <c r="VX14" s="26">
         <v>593</v>
       </c>
-      <c r="VY14" s="57">
+      <c r="VY14" s="26">
         <v>594</v>
       </c>
-      <c r="VZ14" s="57">
+      <c r="VZ14" s="26">
         <v>595</v>
       </c>
-      <c r="WA14" s="57">
+      <c r="WA14" s="26">
         <v>596</v>
       </c>
-      <c r="WB14" s="57">
+      <c r="WB14" s="26">
         <v>597</v>
       </c>
-      <c r="WC14" s="57">
+      <c r="WC14" s="26">
         <v>598</v>
       </c>
-      <c r="WD14" s="57">
+      <c r="WD14" s="26">
         <v>599</v>
       </c>
-      <c r="WE14" s="57">
+      <c r="WE14" s="26">
         <v>600</v>
       </c>
-      <c r="WF14" s="57">
+      <c r="WF14" s="26">
         <v>601</v>
       </c>
-      <c r="WG14" s="57">
+      <c r="WG14" s="26">
         <v>602</v>
       </c>
-      <c r="WH14" s="57">
+      <c r="WH14" s="26">
         <v>603</v>
       </c>
-      <c r="WI14" s="57">
+      <c r="WI14" s="26">
         <v>604</v>
       </c>
-      <c r="WJ14" s="57">
+      <c r="WJ14" s="26">
         <v>605</v>
       </c>
-      <c r="WK14" s="57">
+      <c r="WK14" s="26">
         <v>606</v>
       </c>
-      <c r="WL14" s="57">
+      <c r="WL14" s="26">
         <v>607</v>
       </c>
-      <c r="WM14" s="57">
+      <c r="WM14" s="26">
         <v>608</v>
       </c>
-      <c r="WN14" s="57">
+      <c r="WN14" s="26">
         <v>609</v>
       </c>
-      <c r="WO14" s="57">
+      <c r="WO14" s="26">
         <v>610</v>
       </c>
-      <c r="WP14" s="57">
+      <c r="WP14" s="26">
         <v>611</v>
       </c>
-      <c r="WQ14" s="57">
+      <c r="WQ14" s="26">
         <v>612</v>
       </c>
-      <c r="WR14" s="57">
+      <c r="WR14" s="26">
         <v>613</v>
       </c>
-      <c r="WS14" s="57">
+      <c r="WS14" s="26">
         <v>614</v>
       </c>
-      <c r="WT14" s="57">
+      <c r="WT14" s="26">
         <v>615</v>
       </c>
-      <c r="WU14" s="57">
+      <c r="WU14" s="26">
         <v>616</v>
       </c>
-      <c r="WV14" s="57">
+      <c r="WV14" s="26">
         <v>617</v>
       </c>
-      <c r="WW14" s="57">
+      <c r="WW14" s="26">
         <v>618</v>
       </c>
-      <c r="WX14" s="57">
+      <c r="WX14" s="26">
         <v>619</v>
       </c>
-      <c r="WY14" s="57">
+      <c r="WY14" s="26">
         <v>620</v>
       </c>
-      <c r="WZ14" s="57">
+      <c r="WZ14" s="26">
         <v>621</v>
       </c>
-      <c r="XA14" s="57">
+      <c r="XA14" s="26">
         <v>622</v>
       </c>
-      <c r="XB14" s="57">
+      <c r="XB14" s="26">
         <v>623</v>
       </c>
-      <c r="XC14" s="57">
+      <c r="XC14" s="26">
         <v>624</v>
       </c>
-      <c r="XD14" s="57">
+      <c r="XD14" s="26">
         <v>625</v>
       </c>
-      <c r="XE14" s="57">
+      <c r="XE14" s="26">
         <v>626</v>
       </c>
-      <c r="XF14" s="57">
+      <c r="XF14" s="26">
         <v>627</v>
       </c>
-      <c r="XG14" s="57">
+      <c r="XG14" s="26">
         <v>628</v>
       </c>
-      <c r="XH14" s="57">
+      <c r="XH14" s="26">
         <v>629</v>
       </c>
-      <c r="XI14" s="57">
+      <c r="XI14" s="26">
         <v>630</v>
       </c>
-      <c r="XJ14" s="57">
+      <c r="XJ14" s="26">
         <v>631</v>
       </c>
-      <c r="XK14" s="57">
+      <c r="XK14" s="26">
         <v>632</v>
       </c>
-      <c r="XL14" s="57">
+      <c r="XL14" s="26">
         <v>633</v>
       </c>
-      <c r="XM14" s="57">
+      <c r="XM14" s="26">
         <v>634</v>
       </c>
-      <c r="XN14" s="57">
+      <c r="XN14" s="26">
         <v>635</v>
       </c>
-      <c r="XO14" s="57">
+      <c r="XO14" s="26">
         <v>636</v>
       </c>
-      <c r="XP14" s="57">
+      <c r="XP14" s="26">
         <v>637</v>
       </c>
-      <c r="XQ14" s="57">
+      <c r="XQ14" s="26">
         <v>638</v>
       </c>
-      <c r="XR14" s="57">
+      <c r="XR14" s="26">
         <v>639</v>
       </c>
-      <c r="XS14" s="57">
+      <c r="XS14" s="26">
         <v>640</v>
       </c>
-      <c r="XT14" s="57">
+      <c r="XT14" s="26">
         <v>641</v>
       </c>
-      <c r="XU14" s="57">
+      <c r="XU14" s="26">
         <v>642</v>
       </c>
-      <c r="XV14" s="57">
+      <c r="XV14" s="26">
         <v>643</v>
       </c>
-      <c r="XW14" s="57">
+      <c r="XW14" s="26">
         <v>644</v>
       </c>
-      <c r="XX14" s="57">
+      <c r="XX14" s="26">
         <v>645</v>
       </c>
-      <c r="XY14" s="57">
+      <c r="XY14" s="26">
         <v>646</v>
       </c>
-      <c r="XZ14" s="57">
+      <c r="XZ14" s="26">
         <v>647</v>
       </c>
-      <c r="YA14" s="57">
+      <c r="YA14" s="26">
         <v>648</v>
       </c>
-      <c r="YB14" s="57">
+      <c r="YB14" s="26">
         <v>649</v>
       </c>
-      <c r="YC14" s="57">
+      <c r="YC14" s="26">
         <v>650</v>
       </c>
-      <c r="YD14" s="57">
+      <c r="YD14" s="26">
         <v>651</v>
       </c>
-      <c r="YE14" s="57">
+      <c r="YE14" s="26">
         <v>652</v>
       </c>
-      <c r="YF14" s="57">
+      <c r="YF14" s="26">
         <v>653</v>
       </c>
-      <c r="YG14" s="57">
+      <c r="YG14" s="26">
         <v>654</v>
       </c>
-      <c r="YH14" s="57">
+      <c r="YH14" s="26">
         <v>655</v>
       </c>
-      <c r="YI14" s="57">
+      <c r="YI14" s="26">
         <v>656</v>
       </c>
-      <c r="YJ14" s="57">
+      <c r="YJ14" s="26">
         <v>657</v>
       </c>
-      <c r="YK14" s="57">
+      <c r="YK14" s="26">
         <v>658</v>
       </c>
-      <c r="YL14" s="57">
+      <c r="YL14" s="26">
         <v>659</v>
       </c>
-      <c r="YM14" s="57">
+      <c r="YM14" s="26">
         <v>660</v>
       </c>
-      <c r="YN14" s="57">
+      <c r="YN14" s="26">
         <v>661</v>
       </c>
-      <c r="YO14" s="57">
+      <c r="YO14" s="26">
         <v>662</v>
       </c>
-      <c r="YP14" s="57">
+      <c r="YP14" s="26">
         <v>663</v>
       </c>
-      <c r="YQ14" s="57">
+      <c r="YQ14" s="26">
         <v>664</v>
       </c>
-      <c r="YR14" s="57">
+      <c r="YR14" s="26">
         <v>665</v>
       </c>
-      <c r="YS14" s="57">
+      <c r="YS14" s="26">
         <v>666</v>
       </c>
-      <c r="YT14" s="57">
+      <c r="YT14" s="26">
         <v>667</v>
       </c>
-      <c r="YU14" s="57">
+      <c r="YU14" s="26">
         <v>668</v>
       </c>
-      <c r="YV14" s="57">
+      <c r="YV14" s="26">
         <v>669</v>
       </c>
-      <c r="YW14" s="57">
+      <c r="YW14" s="26">
         <v>670</v>
       </c>
-      <c r="YX14" s="57">
+      <c r="YX14" s="26">
         <v>671</v>
       </c>
-      <c r="YY14" s="57">
+      <c r="YY14" s="26">
         <v>672</v>
       </c>
-      <c r="YZ14" s="57">
+      <c r="YZ14" s="26">
         <v>673</v>
       </c>
-      <c r="ZA14" s="57">
+      <c r="ZA14" s="26">
         <v>674</v>
       </c>
-      <c r="ZB14" s="57">
+      <c r="ZB14" s="26">
         <v>675</v>
       </c>
-      <c r="ZC14" s="57">
+      <c r="ZC14" s="26">
         <v>676</v>
       </c>
-      <c r="ZD14" s="57">
+      <c r="ZD14" s="26">
         <v>677</v>
       </c>
-      <c r="ZE14" s="57">
+      <c r="ZE14" s="26">
         <v>678</v>
       </c>
-      <c r="ZF14" s="57">
+      <c r="ZF14" s="26">
         <v>679</v>
       </c>
-      <c r="ZG14" s="57">
+      <c r="ZG14" s="26">
         <v>680</v>
       </c>
-      <c r="ZH14" s="57">
+      <c r="ZH14" s="26">
         <v>681</v>
       </c>
-      <c r="ZI14" s="57">
+      <c r="ZI14" s="26">
         <v>682</v>
       </c>
-      <c r="ZJ14" s="57">
+      <c r="ZJ14" s="26">
         <v>683</v>
       </c>
-      <c r="ZK14" s="57">
+      <c r="ZK14" s="26">
         <v>684</v>
       </c>
-      <c r="ZL14" s="57">
+      <c r="ZL14" s="26">
         <v>685</v>
       </c>
-      <c r="ZM14" s="57">
+      <c r="ZM14" s="26">
         <v>686</v>
       </c>
-      <c r="ZN14" s="57">
+      <c r="ZN14" s="26">
         <v>687</v>
       </c>
-      <c r="ZO14" s="57">
+      <c r="ZO14" s="26">
         <v>688</v>
       </c>
-      <c r="ZP14" s="57">
+      <c r="ZP14" s="26">
         <v>689</v>
       </c>
-      <c r="ZQ14" s="57">
+      <c r="ZQ14" s="26">
         <v>690</v>
       </c>
-      <c r="ZR14" s="57">
+      <c r="ZR14" s="26">
         <v>691</v>
       </c>
-      <c r="ZS14" s="57">
+      <c r="ZS14" s="26">
         <v>692</v>
       </c>
-      <c r="ZT14" s="57">
+      <c r="ZT14" s="26">
         <v>693</v>
       </c>
-      <c r="ZU14" s="57">
+      <c r="ZU14" s="26">
         <v>694</v>
       </c>
-      <c r="ZV14" s="57">
+      <c r="ZV14" s="26">
         <v>695</v>
       </c>
-      <c r="ZW14" s="57">
+      <c r="ZW14" s="26">
         <v>696</v>
       </c>
-      <c r="ZX14" s="57">
+      <c r="ZX14" s="26">
         <v>697</v>
       </c>
-      <c r="ZY14" s="57">
+      <c r="ZY14" s="26">
         <v>698</v>
       </c>
-      <c r="ZZ14" s="57">
+      <c r="ZZ14" s="26">
         <v>699</v>
       </c>
-      <c r="AAA14" s="57">
+      <c r="AAA14" s="26">
         <v>700</v>
       </c>
-      <c r="AAB14" s="57">
+      <c r="AAB14" s="26">
         <v>701</v>
       </c>
-      <c r="AAC14" s="57">
+      <c r="AAC14" s="26">
         <v>702</v>
       </c>
-      <c r="AAD14" s="57">
+      <c r="AAD14" s="26">
         <v>703</v>
       </c>
-      <c r="AAE14" s="57">
+      <c r="AAE14" s="26">
         <v>704</v>
       </c>
-      <c r="AAF14" s="57">
+      <c r="AAF14" s="26">
         <v>705</v>
       </c>
-      <c r="AAG14" s="57">
+      <c r="AAG14" s="26">
         <v>706</v>
       </c>
-      <c r="AAH14" s="57">
+      <c r="AAH14" s="26">
         <v>707</v>
       </c>
-      <c r="AAI14" s="57">
+      <c r="AAI14" s="26">
         <v>708</v>
       </c>
-      <c r="AAJ14" s="57">
+      <c r="AAJ14" s="26">
         <v>709</v>
       </c>
-      <c r="AAK14" s="57">
+      <c r="AAK14" s="26">
         <v>710</v>
       </c>
-      <c r="AAL14" s="57">
+      <c r="AAL14" s="26">
         <v>711</v>
       </c>
-      <c r="AAM14" s="57">
+      <c r="AAM14" s="26">
         <v>712</v>
       </c>
-      <c r="AAN14" s="57">
+      <c r="AAN14" s="26">
         <v>713</v>
       </c>
-      <c r="AAO14" s="57">
+      <c r="AAO14" s="26">
         <v>714</v>
       </c>
-      <c r="AAP14" s="57">
+      <c r="AAP14" s="26">
         <v>715</v>
       </c>
-      <c r="AAQ14" s="57">
+      <c r="AAQ14" s="26">
         <v>716</v>
       </c>
-      <c r="AAR14" s="57">
+      <c r="AAR14" s="26">
         <v>717</v>
       </c>
-      <c r="AAS14" s="57">
+      <c r="AAS14" s="26">
         <v>718</v>
       </c>
-      <c r="AAT14" s="57">
+      <c r="AAT14" s="26">
         <v>719</v>
       </c>
-      <c r="AAU14" s="57">
+      <c r="AAU14" s="26">
         <v>720</v>
       </c>
-      <c r="AAV14" s="57">
+      <c r="AAV14" s="26">
         <v>721</v>
       </c>
-      <c r="AAW14" s="57">
+      <c r="AAW14" s="26">
         <v>722</v>
       </c>
-      <c r="AAX14" s="57">
+      <c r="AAX14" s="26">
         <v>723</v>
       </c>
-      <c r="AAY14" s="57">
+      <c r="AAY14" s="26">
         <v>724</v>
       </c>
-      <c r="AAZ14" s="57">
+      <c r="AAZ14" s="26">
         <v>725</v>
       </c>
-      <c r="ABA14" s="57">
+      <c r="ABA14" s="26">
         <v>726</v>
       </c>
-      <c r="ABB14" s="57">
+      <c r="ABB14" s="26">
         <v>727</v>
       </c>
-      <c r="ABC14" s="57">
+      <c r="ABC14" s="26">
         <v>728</v>
       </c>
-      <c r="ABD14" s="57">
+      <c r="ABD14" s="26">
         <v>729</v>
       </c>
-      <c r="ABE14" s="57">
+      <c r="ABE14" s="26">
         <v>730</v>
       </c>
-      <c r="ABF14" s="57">
+      <c r="ABF14" s="26">
         <v>731</v>
       </c>
-      <c r="ABG14" s="57">
+      <c r="ABG14" s="26">
         <v>732</v>
       </c>
-      <c r="ABH14" s="57">
+      <c r="ABH14" s="26">
         <v>733</v>
       </c>
-      <c r="ABI14" s="57">
+      <c r="ABI14" s="26">
         <v>734</v>
       </c>
-      <c r="ABJ14" s="57">
+      <c r="ABJ14" s="26">
         <v>735</v>
       </c>
-      <c r="ABK14" s="57">
+      <c r="ABK14" s="26">
         <v>736</v>
       </c>
-      <c r="ABL14" s="57">
+      <c r="ABL14" s="26">
         <v>737</v>
       </c>
-      <c r="ABM14" s="57">
+      <c r="ABM14" s="26">
         <v>738</v>
       </c>
-      <c r="ABN14" s="57">
+      <c r="ABN14" s="26">
         <v>739</v>
       </c>
-      <c r="ABO14" s="57">
+      <c r="ABO14" s="26">
         <v>740</v>
       </c>
-      <c r="ABP14" s="57">
+      <c r="ABP14" s="26">
         <v>741</v>
       </c>
-      <c r="ABQ14" s="57">
+      <c r="ABQ14" s="26">
         <v>742</v>
       </c>
-      <c r="ABR14" s="57">
+      <c r="ABR14" s="26">
         <v>743</v>
       </c>
-      <c r="ABS14" s="57">
+      <c r="ABS14" s="26">
         <v>744</v>
       </c>
-      <c r="ABT14" s="57">
+      <c r="ABT14" s="26">
         <v>745</v>
       </c>
-      <c r="ABU14" s="57">
+      <c r="ABU14" s="26">
         <v>746</v>
       </c>
-      <c r="ABV14" s="57">
+      <c r="ABV14" s="26">
         <v>747</v>
       </c>
-      <c r="ABW14" s="57">
+      <c r="ABW14" s="26">
         <v>748</v>
       </c>
-      <c r="ABX14" s="57">
+      <c r="ABX14" s="26">
         <v>749</v>
       </c>
-      <c r="ABY14" s="57">
+      <c r="ABY14" s="26">
         <v>750</v>
       </c>
-      <c r="ABZ14" s="57">
+      <c r="ABZ14" s="26">
         <v>751</v>
       </c>
-      <c r="ACA14" s="57">
+      <c r="ACA14" s="26">
         <v>752</v>
       </c>
-      <c r="ACB14" s="57">
+      <c r="ACB14" s="26">
         <v>753</v>
       </c>
-      <c r="ACC14" s="57">
+      <c r="ACC14" s="26">
         <v>754</v>
       </c>
-      <c r="ACD14" s="57">
+      <c r="ACD14" s="26">
         <v>755</v>
       </c>
-      <c r="ACE14" s="57">
+      <c r="ACE14" s="26">
         <v>756</v>
       </c>
-      <c r="ACF14" s="57">
+      <c r="ACF14" s="26">
         <v>757</v>
       </c>
-      <c r="ACG14" s="57">
+      <c r="ACG14" s="26">
         <v>758</v>
       </c>
-      <c r="ACH14" s="57">
+      <c r="ACH14" s="26">
         <v>759</v>
       </c>
-      <c r="ACI14" s="57">
+      <c r="ACI14" s="26">
         <v>760</v>
       </c>
-      <c r="ACJ14" s="57">
+      <c r="ACJ14" s="26">
         <v>761</v>
       </c>
-      <c r="ACK14" s="57">
+      <c r="ACK14" s="26">
         <v>762</v>
       </c>
-      <c r="ACL14" s="57">
+      <c r="ACL14" s="26">
         <v>763</v>
       </c>
-      <c r="ACM14" s="57">
+      <c r="ACM14" s="26">
         <v>764</v>
       </c>
-      <c r="ACN14" s="57">
+      <c r="ACN14" s="26">
         <v>765</v>
       </c>
-      <c r="ACO14" s="57">
+      <c r="ACO14" s="26">
         <v>766</v>
       </c>
-      <c r="ACP14" s="57">
+      <c r="ACP14" s="26">
         <v>767</v>
       </c>
-      <c r="ACQ14" s="57">
+      <c r="ACQ14" s="26">
         <v>768</v>
       </c>
-      <c r="ACR14" s="57">
+      <c r="ACR14" s="26">
         <v>769</v>
       </c>
-      <c r="ACS14" s="57">
+      <c r="ACS14" s="26">
         <v>770</v>
       </c>
-      <c r="ACT14" s="57">
+      <c r="ACT14" s="26">
         <v>771</v>
       </c>
-      <c r="ACU14" s="57">
+      <c r="ACU14" s="26">
         <v>772</v>
       </c>
-      <c r="ACV14" s="57">
+      <c r="ACV14" s="26">
         <v>773</v>
       </c>
-      <c r="ACW14" s="57">
+      <c r="ACW14" s="26">
         <v>774</v>
       </c>
-      <c r="ACX14" s="57">
+      <c r="ACX14" s="26">
         <v>775</v>
       </c>
-      <c r="ACY14" s="57">
+      <c r="ACY14" s="26">
         <v>776</v>
       </c>
-      <c r="ACZ14" s="57">
+      <c r="ACZ14" s="26">
         <v>777</v>
       </c>
-      <c r="ADA14" s="57">
+      <c r="ADA14" s="26">
         <v>778</v>
       </c>
-      <c r="ADB14" s="57">
+      <c r="ADB14" s="26">
         <v>779</v>
       </c>
-      <c r="ADC14" s="57">
+      <c r="ADC14" s="26">
         <v>780</v>
       </c>
-      <c r="ADD14" s="57">
+      <c r="ADD14" s="26">
         <v>781</v>
       </c>
-      <c r="ADE14" s="57">
+      <c r="ADE14" s="26">
         <v>782</v>
       </c>
-      <c r="ADF14" s="57">
+      <c r="ADF14" s="26">
         <v>783</v>
       </c>
-      <c r="ADG14" s="57">
+      <c r="ADG14" s="26">
         <v>784</v>
       </c>
-      <c r="ADH14" s="57">
+      <c r="ADH14" s="26">
         <v>785</v>
       </c>
-      <c r="ADI14" s="57">
+      <c r="ADI14" s="26">
         <v>786</v>
       </c>
-      <c r="ADJ14" s="57">
+      <c r="ADJ14" s="26">
         <v>787</v>
       </c>
-      <c r="ADK14" s="57">
+      <c r="ADK14" s="26">
         <v>788</v>
       </c>
-      <c r="ADL14" s="57">
+      <c r="ADL14" s="26">
         <v>789</v>
       </c>
-      <c r="ADM14" s="57">
+      <c r="ADM14" s="26">
         <v>790</v>
       </c>
-      <c r="ADN14" s="57">
+      <c r="ADN14" s="26">
         <v>791</v>
       </c>
-      <c r="ADO14" s="57">
+      <c r="ADO14" s="26">
         <v>792</v>
       </c>
-      <c r="ADP14" s="57">
+      <c r="ADP14" s="26">
         <v>793</v>
       </c>
-      <c r="ADQ14" s="57">
+      <c r="ADQ14" s="26">
         <v>794</v>
       </c>
-      <c r="ADR14" s="57">
+      <c r="ADR14" s="26">
         <v>795</v>
       </c>
-      <c r="ADS14" s="57">
+      <c r="ADS14" s="26">
         <v>796</v>
       </c>
-      <c r="ADT14" s="57">
+      <c r="ADT14" s="26">
         <v>797</v>
       </c>
-      <c r="ADU14" s="57">
+      <c r="ADU14" s="26">
         <v>798</v>
       </c>
-      <c r="ADV14" s="57">
+      <c r="ADV14" s="26">
         <v>799</v>
       </c>
-      <c r="ADW14" s="57">
+      <c r="ADW14" s="26">
         <v>800</v>
       </c>
-      <c r="ADX14" s="57">
+      <c r="ADX14" s="26">
         <v>801</v>
       </c>
-      <c r="ADY14" s="57">
+      <c r="ADY14" s="26">
         <v>802</v>
       </c>
-      <c r="ADZ14" s="57">
+      <c r="ADZ14" s="26">
         <v>803</v>
       </c>
-      <c r="AEA14" s="57">
+      <c r="AEA14" s="26">
         <v>804</v>
       </c>
-      <c r="AEB14" s="57">
+      <c r="AEB14" s="26">
         <v>805</v>
       </c>
-      <c r="AEC14" s="57">
+      <c r="AEC14" s="26">
         <v>806</v>
       </c>
-      <c r="AED14" s="57">
+      <c r="AED14" s="26">
         <v>807</v>
       </c>
-      <c r="AEE14" s="57">
+      <c r="AEE14" s="26">
         <v>808</v>
       </c>
-      <c r="AEF14" s="57">
+      <c r="AEF14" s="26">
         <v>809</v>
       </c>
-      <c r="AEG14" s="57">
+      <c r="AEG14" s="26">
         <v>810</v>
       </c>
-      <c r="AEH14" s="57">
+      <c r="AEH14" s="26">
         <v>811</v>
       </c>
-      <c r="AEI14" s="57">
+      <c r="AEI14" s="26">
         <v>812</v>
       </c>
-      <c r="AEJ14" s="57">
+      <c r="AEJ14" s="26">
         <v>813</v>
       </c>
-      <c r="AEK14" s="57">
+      <c r="AEK14" s="26">
         <v>814</v>
       </c>
-      <c r="AEL14" s="57">
+      <c r="AEL14" s="26">
         <v>815</v>
       </c>
-      <c r="AEM14" s="57">
+      <c r="AEM14" s="26">
         <v>816</v>
       </c>
-      <c r="AEN14" s="57">
+      <c r="AEN14" s="26">
         <v>817</v>
       </c>
-      <c r="AEO14" s="57">
+      <c r="AEO14" s="26">
         <v>818</v>
       </c>
-      <c r="AEP14" s="57">
+      <c r="AEP14" s="26">
         <v>819</v>
       </c>
-      <c r="AEQ14" s="57">
+      <c r="AEQ14" s="26">
         <v>820</v>
       </c>
-      <c r="AER14" s="57">
+      <c r="AER14" s="26">
         <v>821</v>
       </c>
-      <c r="AES14" s="57">
+      <c r="AES14" s="26">
         <v>822</v>
       </c>
-      <c r="AET14" s="57">
+      <c r="AET14" s="26">
         <v>823</v>
       </c>
-      <c r="AEU14" s="57">
+      <c r="AEU14" s="26">
         <v>824</v>
       </c>
-      <c r="AEV14" s="57">
+      <c r="AEV14" s="26">
         <v>825</v>
       </c>
-      <c r="AEW14" s="57">
+      <c r="AEW14" s="26">
         <v>826</v>
       </c>
-      <c r="AEX14" s="57">
+      <c r="AEX14" s="26">
         <v>827</v>
       </c>
-      <c r="AEY14" s="57">
+      <c r="AEY14" s="26">
         <v>828</v>
       </c>
-      <c r="AEZ14" s="57">
+      <c r="AEZ14" s="26">
         <v>829</v>
       </c>
-      <c r="AFA14" s="57">
+      <c r="AFA14" s="26">
         <v>830</v>
       </c>
-      <c r="AFB14" s="57">
+      <c r="AFB14" s="26">
         <v>831</v>
       </c>
-      <c r="AFC14" s="57">
+      <c r="AFC14" s="26">
         <v>832</v>
       </c>
-      <c r="AFD14" s="57">
+      <c r="AFD14" s="26">
         <v>833</v>
       </c>
-      <c r="AFE14" s="57">
+      <c r="AFE14" s="26">
         <v>834</v>
       </c>
-      <c r="AFF14" s="57">
+      <c r="AFF14" s="26">
         <v>835</v>
       </c>
-      <c r="AFG14" s="57">
+      <c r="AFG14" s="26">
         <v>836</v>
       </c>
-      <c r="AFH14" s="57">
+      <c r="AFH14" s="26">
         <v>837</v>
       </c>
-      <c r="AFI14" s="57">
+      <c r="AFI14" s="26">
         <v>838</v>
       </c>
-      <c r="AFJ14" s="57">
+      <c r="AFJ14" s="26">
         <v>839</v>
       </c>
-      <c r="AFK14" s="57">
+      <c r="AFK14" s="26">
         <v>840</v>
       </c>
-      <c r="AFL14" s="57">
+      <c r="AFL14" s="26">
         <v>841</v>
       </c>
-      <c r="AFM14" s="57">
+      <c r="AFM14" s="26">
         <v>842</v>
       </c>
-      <c r="AFN14" s="57">
+      <c r="AFN14" s="26">
         <v>843</v>
       </c>
-      <c r="AFO14" s="57">
+      <c r="AFO14" s="26">
         <v>844</v>
       </c>
-      <c r="AFP14" s="57">
+      <c r="AFP14" s="26">
         <v>845</v>
       </c>
-      <c r="AFQ14" s="57">
+      <c r="AFQ14" s="26">
         <v>846</v>
       </c>
-      <c r="AFR14" s="57">
+      <c r="AFR14" s="26">
         <v>847</v>
       </c>
-      <c r="AFS14" s="57">
+      <c r="AFS14" s="26">
         <v>848</v>
       </c>
-      <c r="AFT14" s="57">
+      <c r="AFT14" s="26">
         <v>849</v>
       </c>
-      <c r="AFU14" s="57">
+      <c r="AFU14" s="26">
         <v>850</v>
       </c>
-      <c r="AFV14" s="57">
+      <c r="AFV14" s="26">
         <v>851</v>
       </c>
-      <c r="AFW14" s="57">
+      <c r="AFW14" s="26">
         <v>852</v>
       </c>
-      <c r="AFX14" s="57">
+      <c r="AFX14" s="26">
         <v>853</v>
       </c>
-      <c r="AFY14" s="57">
+      <c r="AFY14" s="26">
         <v>854</v>
       </c>
-      <c r="AFZ14" s="57">
+      <c r="AFZ14" s="26">
         <v>855</v>
       </c>
-      <c r="AGA14" s="57">
+      <c r="AGA14" s="26">
         <v>856</v>
       </c>
-      <c r="AGB14" s="57">
+      <c r="AGB14" s="26">
         <v>857</v>
       </c>
-      <c r="AGC14" s="57">
+      <c r="AGC14" s="26">
         <v>858</v>
       </c>
-      <c r="AGD14" s="57">
+      <c r="AGD14" s="26">
         <v>859</v>
       </c>
-      <c r="AGE14" s="57">
+      <c r="AGE14" s="26">
         <v>860</v>
       </c>
-      <c r="AGF14" s="57">
+      <c r="AGF14" s="26">
         <v>861</v>
       </c>
-      <c r="AGG14" s="57">
+      <c r="AGG14" s="26">
         <v>862</v>
       </c>
-      <c r="AGH14" s="57">
+      <c r="AGH14" s="26">
         <v>863</v>
       </c>
-      <c r="AGI14" s="57">
+      <c r="AGI14" s="26">
         <v>864</v>
       </c>
-      <c r="AGJ14" s="57">
+      <c r="AGJ14" s="26">
         <v>865</v>
       </c>
-      <c r="AGK14" s="57">
+      <c r="AGK14" s="26">
         <v>866</v>
       </c>
-      <c r="AGL14" s="57">
+      <c r="AGL14" s="26">
         <v>867</v>
       </c>
-      <c r="AGM14" s="57">
+      <c r="AGM14" s="26">
         <v>868</v>
       </c>
-      <c r="AGN14" s="57">
+      <c r="AGN14" s="26">
         <v>869</v>
       </c>
-      <c r="AGO14" s="57">
+      <c r="AGO14" s="26">
         <v>870</v>
       </c>
-      <c r="AGP14" s="57">
+      <c r="AGP14" s="26">
         <v>871</v>
       </c>
-      <c r="AGQ14" s="57">
+      <c r="AGQ14" s="26">
         <v>872</v>
       </c>
-      <c r="AGR14" s="57">
+      <c r="AGR14" s="26">
         <v>873</v>
       </c>
-      <c r="AGS14" s="57">
+      <c r="AGS14" s="26">
         <v>874</v>
       </c>
-      <c r="AGT14" s="57">
+      <c r="AGT14" s="26">
         <v>875</v>
       </c>
-      <c r="AGU14" s="57">
+      <c r="AGU14" s="26">
         <v>876</v>
       </c>
-      <c r="AGV14" s="57">
+      <c r="AGV14" s="26">
         <v>877</v>
       </c>
-      <c r="AGW14" s="57">
+      <c r="AGW14" s="26">
         <v>878</v>
       </c>
-      <c r="AGX14" s="57">
+      <c r="AGX14" s="26">
         <v>879</v>
       </c>
-      <c r="AGY14" s="57">
+      <c r="AGY14" s="26">
         <v>880</v>
       </c>
-      <c r="AGZ14" s="57">
+      <c r="AGZ14" s="26">
         <v>881</v>
       </c>
-      <c r="AHA14" s="57">
+      <c r="AHA14" s="26">
         <v>882</v>
       </c>
-      <c r="AHB14" s="57">
+      <c r="AHB14" s="26">
         <v>883</v>
       </c>
-      <c r="AHC14" s="57">
+      <c r="AHC14" s="26">
         <v>884</v>
       </c>
-      <c r="AHD14" s="57">
+      <c r="AHD14" s="26">
         <v>885</v>
       </c>
-      <c r="AHE14" s="57">
+      <c r="AHE14" s="26">
         <v>886</v>
       </c>
-      <c r="AHF14" s="57">
+      <c r="AHF14" s="26">
         <v>887</v>
       </c>
-      <c r="AHG14" s="57">
+      <c r="AHG14" s="26">
         <v>888</v>
       </c>
-      <c r="AHH14" s="57">
+      <c r="AHH14" s="26">
         <v>889</v>
       </c>
-      <c r="AHI14" s="57">
+      <c r="AHI14" s="26">
         <v>890</v>
       </c>
-      <c r="AHJ14" s="57">
+      <c r="AHJ14" s="26">
         <v>891</v>
       </c>
-      <c r="AHK14" s="57">
+      <c r="AHK14" s="26">
         <v>892</v>
       </c>
-      <c r="AHL14" s="57">
+      <c r="AHL14" s="26">
         <v>893</v>
       </c>
-      <c r="AHM14" s="57">
+      <c r="AHM14" s="26">
         <v>894</v>
       </c>
-      <c r="AHN14" s="57">
+      <c r="AHN14" s="26">
         <v>895</v>
       </c>
-      <c r="AHO14" s="57">
+      <c r="AHO14" s="26">
         <v>896</v>
       </c>
-      <c r="AHP14" s="57">
+      <c r="AHP14" s="26">
         <v>897</v>
       </c>
-      <c r="AHQ14" s="57">
+      <c r="AHQ14" s="26">
         <v>898</v>
       </c>
-      <c r="AHR14" s="57">
+      <c r="AHR14" s="26">
         <v>899</v>
       </c>
-      <c r="AHS14" s="57">
+      <c r="AHS14" s="26">
         <v>900</v>
       </c>
-      <c r="AHT14" s="57">
+      <c r="AHT14" s="26">
         <v>901</v>
       </c>
-      <c r="AHU14" s="57">
+      <c r="AHU14" s="26">
         <v>902</v>
       </c>
-      <c r="AHV14" s="57">
+      <c r="AHV14" s="26">
         <v>903</v>
       </c>
-      <c r="AHW14" s="57">
+      <c r="AHW14" s="26">
         <v>904</v>
       </c>
-      <c r="AHX14" s="57">
+      <c r="AHX14" s="26">
         <v>905</v>
       </c>
-      <c r="AHY14" s="57">
+      <c r="AHY14" s="26">
         <v>906</v>
       </c>
-      <c r="AHZ14" s="57">
+      <c r="AHZ14" s="26">
         <v>907</v>
       </c>
-      <c r="AIA14" s="57">
+      <c r="AIA14" s="26">
         <v>908</v>
       </c>
-      <c r="AIB14" s="57">
+      <c r="AIB14" s="26">
         <v>909</v>
       </c>
-      <c r="AIC14" s="57">
+      <c r="AIC14" s="26">
         <v>910</v>
       </c>
-      <c r="AID14" s="57">
+      <c r="AID14" s="26">
         <v>911</v>
       </c>
-      <c r="AIE14" s="57">
+      <c r="AIE14" s="26">
         <v>912</v>
       </c>
-      <c r="AIF14" s="57">
+      <c r="AIF14" s="26">
         <v>913</v>
       </c>
-      <c r="AIG14" s="57">
+      <c r="AIG14" s="26">
         <v>914</v>
       </c>
-      <c r="AIH14" s="57">
+      <c r="AIH14" s="26">
         <v>915</v>
       </c>
-      <c r="AII14" s="57">
+      <c r="AII14" s="26">
         <v>916</v>
       </c>
-      <c r="AIJ14" s="57">
+      <c r="AIJ14" s="26">
         <v>917</v>
       </c>
-      <c r="AIK14" s="57">
+      <c r="AIK14" s="26">
         <v>918</v>
       </c>
-      <c r="AIL14" s="57">
+      <c r="AIL14" s="26">
         <v>919</v>
       </c>
-      <c r="AIM14" s="57">
+      <c r="AIM14" s="26">
         <v>920</v>
       </c>
-      <c r="AIN14" s="57">
+      <c r="AIN14" s="26">
         <v>921</v>
       </c>
-      <c r="AIO14" s="57">
+      <c r="AIO14" s="26">
         <v>922</v>
       </c>
-      <c r="AIP14" s="57">
+      <c r="AIP14" s="26">
         <v>923</v>
       </c>
-      <c r="AIQ14" s="57">
+      <c r="AIQ14" s="26">
         <v>924</v>
       </c>
-      <c r="AIR14" s="57">
+      <c r="AIR14" s="26">
         <v>925</v>
       </c>
-      <c r="AIS14" s="57">
+      <c r="AIS14" s="26">
         <v>926</v>
       </c>
-      <c r="AIT14" s="57">
+      <c r="AIT14" s="26">
         <v>927</v>
       </c>
-      <c r="AIU14" s="57">
+      <c r="AIU14" s="26">
         <v>928</v>
       </c>
-      <c r="AIV14" s="57">
+      <c r="AIV14" s="26">
         <v>929</v>
       </c>
-      <c r="AIW14" s="57">
+      <c r="AIW14" s="26">
         <v>930</v>
       </c>
-      <c r="AIX14" s="57">
+      <c r="AIX14" s="26">
         <v>931</v>
       </c>
-      <c r="AIY14" s="57">
+      <c r="AIY14" s="26">
         <v>932</v>
       </c>
-      <c r="AIZ14" s="57">
+      <c r="AIZ14" s="26">
         <v>933</v>
       </c>
-      <c r="AJA14" s="57">
+      <c r="AJA14" s="26">
         <v>934</v>
       </c>
-      <c r="AJB14" s="57">
+      <c r="AJB14" s="26">
         <v>935</v>
       </c>
-      <c r="AJC14" s="57">
+      <c r="AJC14" s="26">
         <v>936</v>
       </c>
-      <c r="AJD14" s="57">
+      <c r="AJD14" s="26">
         <v>937</v>
       </c>
-      <c r="AJE14" s="57">
+      <c r="AJE14" s="26">
         <v>938</v>
       </c>
-      <c r="AJF14" s="57">
+      <c r="AJF14" s="26">
         <v>939</v>
       </c>
-      <c r="AJG14" s="57">
+      <c r="AJG14" s="26">
         <v>940</v>
       </c>
-      <c r="AJH14" s="57">
+      <c r="AJH14" s="26">
         <v>941</v>
       </c>
-      <c r="AJI14" s="57">
+      <c r="AJI14" s="26">
         <v>942</v>
       </c>
-      <c r="AJJ14" s="57">
+      <c r="AJJ14" s="26">
         <v>943</v>
       </c>
-      <c r="AJK14" s="57">
+      <c r="AJK14" s="26">
         <v>944</v>
       </c>
-      <c r="AJL14" s="57">
+      <c r="AJL14" s="26">
         <v>945</v>
       </c>
-      <c r="AJM14" s="57">
+      <c r="AJM14" s="26">
         <v>946</v>
       </c>
-      <c r="AJN14" s="57">
+      <c r="AJN14" s="26">
         <v>947</v>
       </c>
-      <c r="AJO14" s="57">
+      <c r="AJO14" s="26">
         <v>948</v>
       </c>
-      <c r="AJP14" s="57">
+      <c r="AJP14" s="26">
         <v>949</v>
       </c>
-      <c r="AJQ14" s="57">
+      <c r="AJQ14" s="26">
         <v>950</v>
       </c>
-      <c r="AJR14" s="57">
+      <c r="AJR14" s="26">
         <v>951</v>
       </c>
-      <c r="AJS14" s="57">
+      <c r="AJS14" s="26">
         <v>952</v>
       </c>
-      <c r="AJT14" s="57">
+      <c r="AJT14" s="26">
         <v>953</v>
       </c>
-      <c r="AJU14" s="57">
+      <c r="AJU14" s="26">
         <v>954</v>
       </c>
-      <c r="AJV14" s="57">
+      <c r="AJV14" s="26">
         <v>955</v>
       </c>
-      <c r="AJW14" s="57">
+      <c r="AJW14" s="26">
         <v>956</v>
       </c>
-      <c r="AJX14" s="57">
+      <c r="AJX14" s="26">
         <v>957</v>
       </c>
-      <c r="AJY14" s="57">
+      <c r="AJY14" s="26">
         <v>958</v>
       </c>
-      <c r="AJZ14" s="57">
+      <c r="AJZ14" s="26">
         <v>959</v>
       </c>
-      <c r="AKA14" s="57">
+      <c r="AKA14" s="26">
         <v>960</v>
       </c>
-      <c r="AKB14" s="57">
+      <c r="AKB14" s="26">
         <v>961</v>
       </c>
-      <c r="AKC14" s="57">
+      <c r="AKC14" s="26">
         <v>962</v>
       </c>
-      <c r="AKD14" s="57">
+      <c r="AKD14" s="26">
         <v>963</v>
       </c>
-      <c r="AKE14" s="57">
+      <c r="AKE14" s="26">
         <v>964</v>
       </c>
-      <c r="AKF14" s="57">
+      <c r="AKF14" s="26">
         <v>965</v>
       </c>
-      <c r="AKG14" s="57">
+      <c r="AKG14" s="26">
         <v>966</v>
       </c>
-      <c r="AKH14" s="57">
+      <c r="AKH14" s="26">
         <v>967</v>
       </c>
-      <c r="AKI14" s="57">
+      <c r="AKI14" s="26">
         <v>968</v>
       </c>
-      <c r="AKJ14" s="57">
+      <c r="AKJ14" s="26">
         <v>969</v>
       </c>
-      <c r="AKK14" s="57">
+      <c r="AKK14" s="26">
         <v>970</v>
       </c>
-      <c r="AKL14" s="57">
+      <c r="AKL14" s="26">
         <v>971</v>
       </c>
-      <c r="AKM14" s="57">
+      <c r="AKM14" s="26">
         <v>972</v>
       </c>
-      <c r="AKN14" s="57">
+      <c r="AKN14" s="26">
         <v>973</v>
       </c>
-      <c r="AKO14" s="57">
+      <c r="AKO14" s="26">
         <v>974</v>
       </c>
-      <c r="AKP14" s="57">
+      <c r="AKP14" s="26">
         <v>975</v>
       </c>
-      <c r="AKQ14" s="57">
+      <c r="AKQ14" s="26">
         <v>976</v>
       </c>
-      <c r="AKR14" s="57">
+      <c r="AKR14" s="26">
         <v>977</v>
       </c>
-      <c r="AKS14" s="57">
+      <c r="AKS14" s="26">
         <v>978</v>
       </c>
-      <c r="AKT14" s="57">
+      <c r="AKT14" s="26">
         <v>979</v>
       </c>
-      <c r="AKU14" s="57">
+      <c r="AKU14" s="26">
         <v>980</v>
       </c>
-      <c r="AKV14" s="57">
+      <c r="AKV14" s="26">
         <v>981</v>
       </c>
-      <c r="AKW14" s="57">
+      <c r="AKW14" s="26">
         <v>982</v>
       </c>
-      <c r="AKX14" s="57">
+      <c r="AKX14" s="26">
         <v>983</v>
       </c>
-      <c r="AKY14" s="57">
+      <c r="AKY14" s="26">
         <v>984</v>
       </c>
-      <c r="AKZ14" s="57">
+      <c r="AKZ14" s="26">
         <v>985</v>
       </c>
-      <c r="ALA14" s="57">
+      <c r="ALA14" s="26">
         <v>986</v>
       </c>
-      <c r="ALB14" s="57">
+      <c r="ALB14" s="26">
         <v>987</v>
       </c>
-      <c r="ALC14" s="57">
+      <c r="ALC14" s="26">
         <v>988</v>
       </c>
-      <c r="ALD14" s="57">
+      <c r="ALD14" s="26">
         <v>989</v>
       </c>
-      <c r="ALE14" s="57">
+      <c r="ALE14" s="26">
         <v>990</v>
       </c>
-      <c r="ALF14" s="57">
+      <c r="ALF14" s="26">
         <v>991</v>
       </c>
-      <c r="ALG14" s="57">
+      <c r="ALG14" s="26">
         <v>992</v>
       </c>
-      <c r="ALH14" s="57">
+      <c r="ALH14" s="26">
         <v>993</v>
       </c>
-      <c r="ALI14" s="57">
+      <c r="ALI14" s="26">
         <v>994</v>
       </c>
-      <c r="ALJ14" s="57">
+      <c r="ALJ14" s="26">
         <v>995</v>
       </c>
-      <c r="ALK14" s="57">
+      <c r="ALK14" s="26">
         <v>996</v>
       </c>
-      <c r="ALL14" s="57">
+      <c r="ALL14" s="26">
         <v>997</v>
       </c>
-      <c r="ALM14" s="57">
+      <c r="ALM14" s="26">
         <v>998</v>
       </c>
-      <c r="ALN14" s="57">
+      <c r="ALN14" s="26">
         <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:1082" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
-      <c r="AM15" s="29"/>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="29"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="29"/>
-      <c r="AS15" s="29"/>
-      <c r="AT15" s="29"/>
-      <c r="AU15" s="29"/>
-      <c r="AV15" s="29"/>
-      <c r="AW15" s="29"/>
-      <c r="AX15" s="29"/>
-      <c r="AY15" s="29"/>
-      <c r="AZ15" s="29"/>
-      <c r="BA15" s="29"/>
-      <c r="BB15" s="29"/>
-      <c r="BC15" s="29"/>
-      <c r="BD15" s="29"/>
-      <c r="BE15" s="29"/>
-      <c r="BF15" s="29"/>
-      <c r="BG15" s="29"/>
-      <c r="BH15" s="29"/>
-      <c r="BI15" s="29"/>
-      <c r="BJ15" s="30"/>
-      <c r="BK15" s="28"/>
-      <c r="BL15" s="29"/>
-      <c r="BM15" s="29"/>
-      <c r="BN15" s="29"/>
-      <c r="BO15" s="29"/>
-      <c r="BP15" s="29"/>
-      <c r="BQ15" s="29"/>
-      <c r="BR15" s="29"/>
-      <c r="BS15" s="29"/>
-      <c r="BT15" s="29"/>
-      <c r="BU15" s="29"/>
-      <c r="BV15" s="29"/>
-      <c r="BW15" s="29"/>
-      <c r="BX15" s="29"/>
-      <c r="BY15" s="29"/>
-      <c r="BZ15" s="29"/>
-      <c r="CA15" s="29"/>
-      <c r="CB15" s="29"/>
-      <c r="CC15" s="29"/>
-      <c r="CD15" s="30"/>
-      <c r="CE15" s="28"/>
-      <c r="CF15" s="29"/>
-      <c r="CG15" s="29"/>
-      <c r="CH15" s="29"/>
-      <c r="CI15" s="29"/>
-      <c r="CJ15" s="29"/>
-      <c r="CK15" s="29"/>
-      <c r="CL15" s="29"/>
-      <c r="CM15" s="29"/>
-      <c r="CN15" s="29"/>
-      <c r="CO15" s="29"/>
-      <c r="CP15" s="29"/>
-      <c r="CQ15" s="29"/>
-      <c r="CR15" s="29"/>
-      <c r="CS15" s="29"/>
-      <c r="CT15" s="29"/>
-      <c r="CU15" s="29"/>
-      <c r="CV15" s="29"/>
-      <c r="CW15" s="29"/>
-      <c r="CX15" s="30"/>
-      <c r="CY15" s="28"/>
-      <c r="CZ15" s="29"/>
-      <c r="DA15" s="29"/>
-      <c r="DB15" s="29"/>
-      <c r="DC15" s="29"/>
-      <c r="DD15" s="29"/>
-      <c r="DE15" s="29"/>
-      <c r="DF15" s="29"/>
-      <c r="DG15" s="29"/>
-      <c r="DH15" s="29"/>
-      <c r="DI15" s="29"/>
-      <c r="DJ15" s="29"/>
-      <c r="DK15" s="29"/>
-      <c r="DL15" s="29"/>
-      <c r="DM15" s="29"/>
-      <c r="DN15" s="29"/>
-      <c r="DO15" s="29"/>
-      <c r="DP15" s="29"/>
-      <c r="DQ15" s="29"/>
-      <c r="DR15" s="30"/>
-      <c r="DS15" s="28"/>
-      <c r="DT15" s="29"/>
-      <c r="DU15" s="29"/>
-      <c r="DV15" s="29"/>
-      <c r="DW15" s="29"/>
-      <c r="DX15" s="29"/>
-      <c r="DY15" s="29"/>
-      <c r="DZ15" s="29"/>
-      <c r="EA15" s="29"/>
-      <c r="EB15" s="29"/>
-      <c r="EC15" s="29"/>
-      <c r="ED15" s="29"/>
-      <c r="EE15" s="29"/>
-      <c r="EF15" s="29"/>
-      <c r="EG15" s="29"/>
-      <c r="EH15" s="29"/>
-      <c r="EI15" s="29"/>
-      <c r="EJ15" s="29"/>
-      <c r="EK15" s="29"/>
-      <c r="EL15" s="30"/>
-      <c r="EM15" s="28"/>
-      <c r="EN15" s="29"/>
-      <c r="EO15" s="29"/>
-      <c r="EP15" s="29"/>
-      <c r="EQ15" s="29"/>
-      <c r="ER15" s="29"/>
-      <c r="ES15" s="29"/>
-      <c r="ET15" s="29"/>
-      <c r="EU15" s="29"/>
-      <c r="EV15" s="29"/>
-      <c r="EW15" s="29"/>
-      <c r="EX15" s="29"/>
-      <c r="EY15" s="29"/>
-      <c r="EZ15" s="29"/>
-      <c r="FA15" s="29"/>
-      <c r="FB15" s="29"/>
-      <c r="FC15" s="29"/>
-      <c r="FD15" s="29"/>
-      <c r="FE15" s="29"/>
-      <c r="FF15" s="30"/>
-      <c r="FG15" s="28"/>
-      <c r="FH15" s="29"/>
-      <c r="FI15" s="29"/>
-      <c r="FJ15" s="29"/>
-      <c r="FK15" s="29"/>
-      <c r="FL15" s="29"/>
-      <c r="FM15" s="29"/>
-      <c r="FN15" s="29"/>
-      <c r="FO15" s="29"/>
-      <c r="FP15" s="29"/>
-      <c r="FQ15" s="29"/>
-      <c r="FR15" s="29"/>
-      <c r="FS15" s="29"/>
-      <c r="FT15" s="29"/>
-      <c r="FU15" s="29"/>
-      <c r="FV15" s="29"/>
-      <c r="FW15" s="29"/>
-      <c r="FX15" s="29"/>
-      <c r="FY15" s="29"/>
-      <c r="FZ15" s="30"/>
-      <c r="GA15" s="28"/>
-      <c r="GB15" s="29"/>
-      <c r="GC15" s="29"/>
-      <c r="GD15" s="29"/>
-      <c r="GE15" s="29"/>
-      <c r="GF15" s="29"/>
-      <c r="GG15" s="29"/>
-      <c r="GH15" s="29"/>
-      <c r="GI15" s="29"/>
-      <c r="GJ15" s="29"/>
-      <c r="GK15" s="29"/>
-      <c r="GL15" s="29"/>
-      <c r="GM15" s="29"/>
-      <c r="GN15" s="29"/>
-      <c r="GO15" s="29"/>
-      <c r="GP15" s="29"/>
-      <c r="GQ15" s="29"/>
-      <c r="GR15" s="29"/>
-      <c r="GS15" s="29"/>
-      <c r="GT15" s="30"/>
-      <c r="GU15" s="28"/>
-      <c r="GV15" s="29"/>
-      <c r="GW15" s="29"/>
-      <c r="GX15" s="29"/>
-      <c r="GY15" s="29"/>
-      <c r="GZ15" s="29"/>
-      <c r="HA15" s="29"/>
-      <c r="HB15" s="29"/>
-      <c r="HC15" s="29"/>
-      <c r="HD15" s="29"/>
-      <c r="HE15" s="29"/>
-      <c r="HF15" s="29"/>
-      <c r="HG15" s="29"/>
-      <c r="HH15" s="29"/>
-      <c r="HI15" s="29"/>
-      <c r="HJ15" s="29"/>
-      <c r="HK15" s="29"/>
-      <c r="HL15" s="29"/>
-      <c r="HM15" s="29"/>
-      <c r="HN15" s="30"/>
-      <c r="HO15" s="28"/>
-      <c r="HP15" s="29"/>
-      <c r="HQ15" s="29"/>
-      <c r="HR15" s="29"/>
-      <c r="HS15" s="29"/>
-      <c r="HT15" s="29"/>
-      <c r="HU15" s="29"/>
-      <c r="HV15" s="29"/>
-      <c r="HW15" s="29"/>
-      <c r="HX15" s="29"/>
-      <c r="HY15" s="29"/>
-      <c r="HZ15" s="29"/>
-      <c r="IA15" s="29"/>
-      <c r="IB15" s="29"/>
-      <c r="IC15" s="29"/>
-      <c r="ID15" s="29"/>
-      <c r="IE15" s="29"/>
-      <c r="IF15" s="29"/>
-      <c r="IG15" s="29"/>
-      <c r="IH15" s="30"/>
-      <c r="II15" s="28"/>
-      <c r="IJ15" s="29"/>
-      <c r="IK15" s="29"/>
-      <c r="IL15" s="29"/>
-      <c r="IM15" s="29"/>
-      <c r="IN15" s="29"/>
-      <c r="IO15" s="29"/>
-      <c r="IP15" s="29"/>
-      <c r="IQ15" s="29"/>
-      <c r="IR15" s="29"/>
-      <c r="IS15" s="29"/>
-      <c r="IT15" s="29"/>
-      <c r="IU15" s="29"/>
-      <c r="IV15" s="29"/>
-      <c r="IW15" s="29"/>
-      <c r="IX15" s="29"/>
-      <c r="IY15" s="29"/>
-      <c r="IZ15" s="29"/>
-      <c r="JA15" s="29"/>
-      <c r="JB15" s="30"/>
-      <c r="JC15" s="28"/>
-      <c r="JD15" s="29"/>
-      <c r="JE15" s="29"/>
-      <c r="JF15" s="29"/>
-      <c r="JG15" s="29"/>
-      <c r="JH15" s="29"/>
-      <c r="JI15" s="29"/>
-      <c r="JJ15" s="29"/>
-      <c r="JK15" s="29"/>
-      <c r="JL15" s="29"/>
-      <c r="JM15" s="29"/>
-      <c r="JN15" s="29"/>
-      <c r="JO15" s="29"/>
-      <c r="JP15" s="29"/>
-      <c r="JQ15" s="29"/>
-      <c r="JR15" s="29"/>
-      <c r="JS15" s="29"/>
-      <c r="JT15" s="29"/>
-      <c r="JU15" s="29"/>
-      <c r="JV15" s="30"/>
-      <c r="JW15" s="28"/>
-      <c r="JX15" s="29"/>
-      <c r="JY15" s="29"/>
-      <c r="JZ15" s="29"/>
-      <c r="KA15" s="29"/>
-      <c r="KB15" s="29"/>
-      <c r="KC15" s="29"/>
-      <c r="KD15" s="29"/>
-      <c r="KE15" s="29"/>
-      <c r="KF15" s="29"/>
-      <c r="KG15" s="29"/>
-      <c r="KH15" s="29"/>
-      <c r="KI15" s="29"/>
-      <c r="KJ15" s="29"/>
-      <c r="KK15" s="29"/>
-      <c r="KL15" s="29"/>
-      <c r="KM15" s="29"/>
-      <c r="KN15" s="29"/>
-      <c r="KO15" s="29"/>
-      <c r="KP15" s="30"/>
-      <c r="KQ15" s="28"/>
-      <c r="KR15" s="29"/>
-      <c r="KS15" s="29"/>
-      <c r="KT15" s="29"/>
-      <c r="KU15" s="29"/>
-      <c r="KV15" s="29"/>
-      <c r="KW15" s="29"/>
-      <c r="KX15" s="29"/>
-      <c r="KY15" s="29"/>
-      <c r="KZ15" s="29"/>
-      <c r="LA15" s="29"/>
-      <c r="LB15" s="29"/>
-      <c r="LC15" s="29"/>
-      <c r="LD15" s="29"/>
-      <c r="LE15" s="29"/>
-      <c r="LF15" s="29"/>
-      <c r="LG15" s="29"/>
-      <c r="LH15" s="29"/>
-      <c r="LI15" s="29"/>
-      <c r="LJ15" s="30"/>
-      <c r="LK15" s="28"/>
-      <c r="LL15" s="29"/>
-      <c r="LM15" s="29"/>
-      <c r="LN15" s="29"/>
-      <c r="LO15" s="29"/>
-      <c r="LP15" s="29"/>
-      <c r="LQ15" s="29"/>
-      <c r="LR15" s="29"/>
-      <c r="LS15" s="29"/>
-      <c r="LT15" s="29"/>
-      <c r="LU15" s="29"/>
-      <c r="LV15" s="29"/>
-      <c r="LW15" s="29"/>
-      <c r="LX15" s="29"/>
-      <c r="LY15" s="29"/>
-      <c r="LZ15" s="29"/>
-      <c r="MA15" s="29"/>
-      <c r="MB15" s="29"/>
-      <c r="MC15" s="29"/>
-      <c r="MD15" s="30"/>
-      <c r="ME15" s="28"/>
-      <c r="MF15" s="29"/>
-      <c r="MG15" s="29"/>
-      <c r="MH15" s="29"/>
-      <c r="MI15" s="29"/>
-      <c r="MJ15" s="29"/>
-      <c r="MK15" s="29"/>
-      <c r="ML15" s="29"/>
-      <c r="MM15" s="29"/>
-      <c r="MN15" s="29"/>
-      <c r="MO15" s="29"/>
-      <c r="MP15" s="29"/>
-      <c r="MQ15" s="29"/>
-      <c r="MR15" s="29"/>
-      <c r="MS15" s="29"/>
-      <c r="MT15" s="29"/>
-      <c r="MU15" s="29"/>
-      <c r="MV15" s="29"/>
-      <c r="MW15" s="29"/>
-      <c r="MX15" s="30"/>
-      <c r="MY15" s="28"/>
-      <c r="MZ15" s="29"/>
-      <c r="NA15" s="29"/>
-      <c r="NB15" s="29"/>
-      <c r="NC15" s="29"/>
-      <c r="ND15" s="29"/>
-      <c r="NE15" s="29"/>
-      <c r="NF15" s="29"/>
-      <c r="NG15" s="29"/>
-      <c r="NH15" s="29"/>
-      <c r="NI15" s="29"/>
-      <c r="NJ15" s="29"/>
-      <c r="NK15" s="29"/>
-      <c r="NL15" s="29"/>
-      <c r="NM15" s="29"/>
-      <c r="NN15" s="29"/>
-      <c r="NO15" s="29"/>
-      <c r="NP15" s="29"/>
-      <c r="NQ15" s="29"/>
-      <c r="NR15" s="30"/>
-      <c r="NS15" s="28"/>
-      <c r="NT15" s="29"/>
-      <c r="NU15" s="29"/>
-      <c r="NV15" s="29"/>
-      <c r="NW15" s="29"/>
-      <c r="NX15" s="29"/>
-      <c r="NY15" s="29"/>
-      <c r="NZ15" s="29"/>
-      <c r="OA15" s="29"/>
-      <c r="OB15" s="29"/>
-      <c r="OC15" s="29"/>
-      <c r="OD15" s="29"/>
-      <c r="OE15" s="29"/>
-      <c r="OF15" s="29"/>
-      <c r="OG15" s="29"/>
-      <c r="OH15" s="29"/>
-      <c r="OI15" s="29"/>
-      <c r="OJ15" s="29"/>
-      <c r="OK15" s="29"/>
-      <c r="OL15" s="30"/>
-      <c r="OM15" s="28"/>
-      <c r="ON15" s="29"/>
-      <c r="OO15" s="29"/>
-      <c r="OP15" s="29"/>
-      <c r="OQ15" s="29"/>
-      <c r="OR15" s="29"/>
-      <c r="OS15" s="29"/>
-      <c r="OT15" s="29"/>
-      <c r="OU15" s="29"/>
-      <c r="OV15" s="29"/>
-      <c r="OW15" s="29"/>
-      <c r="OX15" s="29"/>
-      <c r="OY15" s="29"/>
-      <c r="OZ15" s="29"/>
-      <c r="PA15" s="29"/>
-      <c r="PB15" s="29"/>
-      <c r="PC15" s="29"/>
-      <c r="PD15" s="29"/>
-      <c r="PE15" s="29"/>
-      <c r="PF15" s="30"/>
-      <c r="PG15" s="28"/>
-      <c r="PH15" s="29"/>
-      <c r="PI15" s="29"/>
-      <c r="PJ15" s="29"/>
-      <c r="PK15" s="29"/>
-      <c r="PL15" s="29"/>
-      <c r="PM15" s="29"/>
-      <c r="PN15" s="29"/>
-      <c r="PO15" s="29"/>
-      <c r="PP15" s="29"/>
-      <c r="PQ15" s="29"/>
-      <c r="PR15" s="29"/>
-      <c r="PS15" s="29"/>
-      <c r="PT15" s="29"/>
-      <c r="PU15" s="29"/>
-      <c r="PV15" s="29"/>
-      <c r="PW15" s="29"/>
-      <c r="PX15" s="29"/>
-      <c r="PY15" s="29"/>
-      <c r="PZ15" s="30"/>
-      <c r="QA15" s="28"/>
-      <c r="QB15" s="29"/>
-      <c r="QC15" s="29"/>
-      <c r="QD15" s="29"/>
-      <c r="QE15" s="29"/>
-      <c r="QF15" s="29"/>
-      <c r="QG15" s="29"/>
-      <c r="QH15" s="29"/>
-      <c r="QI15" s="29"/>
-      <c r="QJ15" s="29"/>
-      <c r="QK15" s="29"/>
-      <c r="QL15" s="29"/>
-      <c r="QM15" s="29"/>
-      <c r="QN15" s="29"/>
-      <c r="QO15" s="29"/>
-      <c r="QP15" s="29"/>
-      <c r="QQ15" s="29"/>
-      <c r="QR15" s="29"/>
-      <c r="QS15" s="29"/>
-      <c r="QT15" s="30"/>
-      <c r="QU15" s="28"/>
-      <c r="QV15" s="29"/>
-      <c r="QW15" s="29"/>
-      <c r="QX15" s="29"/>
-      <c r="QY15" s="29"/>
-      <c r="QZ15" s="29"/>
-      <c r="RA15" s="29"/>
-      <c r="RB15" s="29"/>
-      <c r="RC15" s="29"/>
-      <c r="RD15" s="29"/>
-      <c r="RE15" s="29"/>
-      <c r="RF15" s="29"/>
-      <c r="RG15" s="29"/>
-      <c r="RH15" s="29"/>
-      <c r="RI15" s="29"/>
-      <c r="RJ15" s="29"/>
-      <c r="RK15" s="29"/>
-      <c r="RL15" s="29"/>
-      <c r="RM15" s="29"/>
-      <c r="RN15" s="30"/>
-      <c r="RO15" s="28"/>
-      <c r="RP15" s="29"/>
-      <c r="RQ15" s="29"/>
-      <c r="RR15" s="29"/>
-      <c r="RS15" s="29"/>
-      <c r="RT15" s="29"/>
-      <c r="RU15" s="29"/>
-      <c r="RV15" s="29"/>
-      <c r="RW15" s="29"/>
-      <c r="RX15" s="29"/>
-      <c r="RY15" s="29"/>
-      <c r="RZ15" s="29"/>
-      <c r="SA15" s="29"/>
-      <c r="SB15" s="29"/>
-      <c r="SC15" s="29"/>
-      <c r="SD15" s="29"/>
-      <c r="SE15" s="29"/>
-      <c r="SF15" s="29"/>
-      <c r="SG15" s="29"/>
-      <c r="SH15" s="30"/>
-      <c r="SI15" s="28"/>
-      <c r="SJ15" s="29"/>
-      <c r="SK15" s="29"/>
-      <c r="SL15" s="29"/>
-      <c r="SM15" s="29"/>
-      <c r="SN15" s="29"/>
-      <c r="SO15" s="29"/>
-      <c r="SP15" s="29"/>
-      <c r="SQ15" s="29"/>
-      <c r="SR15" s="29"/>
-      <c r="SS15" s="29"/>
-      <c r="ST15" s="29"/>
-      <c r="SU15" s="29"/>
-      <c r="SV15" s="29"/>
-      <c r="SW15" s="29"/>
-      <c r="SX15" s="29"/>
-      <c r="SY15" s="29"/>
-      <c r="SZ15" s="29"/>
-      <c r="TA15" s="29"/>
-      <c r="TB15" s="30"/>
-      <c r="TC15" s="28"/>
-      <c r="TD15" s="29"/>
-      <c r="TE15" s="29"/>
-      <c r="TF15" s="29"/>
-      <c r="TG15" s="29"/>
-      <c r="TH15" s="29"/>
-      <c r="TI15" s="29"/>
-      <c r="TJ15" s="29"/>
-      <c r="TK15" s="29"/>
-      <c r="TL15" s="29"/>
-      <c r="TM15" s="29"/>
-      <c r="TN15" s="29"/>
-      <c r="TO15" s="29"/>
-      <c r="TP15" s="29"/>
-      <c r="TQ15" s="29"/>
-      <c r="TR15" s="29"/>
-      <c r="TS15" s="29"/>
-      <c r="TT15" s="29"/>
-      <c r="TU15" s="29"/>
-      <c r="TV15" s="30"/>
-      <c r="TW15" s="28"/>
-      <c r="TX15" s="29"/>
-      <c r="TY15" s="29"/>
-      <c r="TZ15" s="29"/>
-      <c r="UA15" s="29"/>
-      <c r="UB15" s="29"/>
-      <c r="UC15" s="29"/>
-      <c r="UD15" s="29"/>
-      <c r="UE15" s="29"/>
-      <c r="UF15" s="29"/>
-      <c r="UG15" s="29"/>
-      <c r="UH15" s="29"/>
-      <c r="UI15" s="29"/>
-      <c r="UJ15" s="29"/>
-      <c r="UK15" s="29"/>
-      <c r="UL15" s="29"/>
-      <c r="UM15" s="29"/>
-      <c r="UN15" s="29"/>
-      <c r="UO15" s="29"/>
-      <c r="UP15" s="30"/>
-      <c r="UQ15" s="28"/>
-      <c r="UR15" s="29"/>
-      <c r="US15" s="29"/>
-      <c r="UT15" s="29"/>
-      <c r="UU15" s="29"/>
-      <c r="UV15" s="29"/>
-      <c r="UW15" s="29"/>
-      <c r="UX15" s="29"/>
-      <c r="UY15" s="29"/>
-      <c r="UZ15" s="29"/>
-      <c r="VA15" s="29"/>
-      <c r="VB15" s="29"/>
-      <c r="VC15" s="29"/>
-      <c r="VD15" s="29"/>
-      <c r="VE15" s="29"/>
-      <c r="VF15" s="29"/>
-      <c r="VG15" s="29"/>
-      <c r="VH15" s="29"/>
-      <c r="VI15" s="29"/>
-      <c r="VJ15" s="30"/>
-      <c r="VK15" s="28"/>
-      <c r="VL15" s="29"/>
-      <c r="VM15" s="29"/>
-      <c r="VN15" s="29"/>
-      <c r="VO15" s="29"/>
-      <c r="VP15" s="29"/>
-      <c r="VQ15" s="29"/>
-      <c r="VR15" s="29"/>
-      <c r="VS15" s="29"/>
-      <c r="VT15" s="29"/>
-      <c r="VU15" s="29"/>
-      <c r="VV15" s="29"/>
-      <c r="VW15" s="29"/>
-      <c r="VX15" s="29"/>
-      <c r="VY15" s="29"/>
-      <c r="VZ15" s="29"/>
-      <c r="WA15" s="29"/>
-      <c r="WB15" s="29"/>
-      <c r="WC15" s="29"/>
-      <c r="WD15" s="30"/>
-      <c r="WE15" s="28"/>
-      <c r="WF15" s="29"/>
-      <c r="WG15" s="29"/>
-      <c r="WH15" s="29"/>
-      <c r="WI15" s="29"/>
-      <c r="WJ15" s="29"/>
-      <c r="WK15" s="29"/>
-      <c r="WL15" s="29"/>
-      <c r="WM15" s="29"/>
-      <c r="WN15" s="29"/>
-      <c r="WO15" s="29"/>
-      <c r="WP15" s="29"/>
-      <c r="WQ15" s="29"/>
-      <c r="WR15" s="29"/>
-      <c r="WS15" s="29"/>
-      <c r="WT15" s="29"/>
-      <c r="WU15" s="29"/>
-      <c r="WV15" s="29"/>
-      <c r="WW15" s="29"/>
-      <c r="WX15" s="30"/>
-      <c r="WY15" s="28"/>
-      <c r="WZ15" s="29"/>
-      <c r="XA15" s="29"/>
-      <c r="XB15" s="29"/>
-      <c r="XC15" s="29"/>
-      <c r="XD15" s="29"/>
-      <c r="XE15" s="29"/>
-      <c r="XF15" s="29"/>
-      <c r="XG15" s="29"/>
-      <c r="XH15" s="29"/>
-      <c r="XI15" s="29"/>
-      <c r="XJ15" s="29"/>
-      <c r="XK15" s="29"/>
-      <c r="XL15" s="29"/>
-      <c r="XM15" s="29"/>
-      <c r="XN15" s="29"/>
-      <c r="XO15" s="29"/>
-      <c r="XP15" s="29"/>
-      <c r="XQ15" s="29"/>
-      <c r="XR15" s="30"/>
-      <c r="XS15" s="28"/>
-      <c r="XT15" s="29"/>
-      <c r="XU15" s="29"/>
-      <c r="XV15" s="29"/>
-      <c r="XW15" s="29"/>
-      <c r="XX15" s="29"/>
-      <c r="XY15" s="29"/>
-      <c r="XZ15" s="29"/>
-      <c r="YA15" s="29"/>
-      <c r="YB15" s="29"/>
-      <c r="YC15" s="29"/>
-      <c r="YD15" s="29"/>
-      <c r="YE15" s="29"/>
-      <c r="YF15" s="29"/>
-      <c r="YG15" s="29"/>
-      <c r="YH15" s="29"/>
-      <c r="YI15" s="29"/>
-      <c r="YJ15" s="29"/>
-      <c r="YK15" s="29"/>
-      <c r="YL15" s="30"/>
-      <c r="YM15" s="28"/>
-      <c r="YN15" s="29"/>
-      <c r="YO15" s="29"/>
-      <c r="YP15" s="29"/>
-      <c r="YQ15" s="29"/>
-      <c r="YR15" s="29"/>
-      <c r="YS15" s="29"/>
-      <c r="YT15" s="29"/>
-      <c r="YU15" s="29"/>
-      <c r="YV15" s="29"/>
-      <c r="YW15" s="29"/>
-      <c r="YX15" s="29"/>
-      <c r="YY15" s="29"/>
-      <c r="YZ15" s="29"/>
-      <c r="ZA15" s="29"/>
-      <c r="ZB15" s="29"/>
-      <c r="ZC15" s="29"/>
-      <c r="ZD15" s="29"/>
-      <c r="ZE15" s="29"/>
-      <c r="ZF15" s="30"/>
-      <c r="ZG15" s="28"/>
-      <c r="ZH15" s="29"/>
-      <c r="ZI15" s="29"/>
-      <c r="ZJ15" s="29"/>
-      <c r="ZK15" s="29"/>
-      <c r="ZL15" s="29"/>
-      <c r="ZM15" s="29"/>
-      <c r="ZN15" s="29"/>
-      <c r="ZO15" s="29"/>
-      <c r="ZP15" s="29"/>
-      <c r="ZQ15" s="29"/>
-      <c r="ZR15" s="29"/>
-      <c r="ZS15" s="29"/>
-      <c r="ZT15" s="29"/>
-      <c r="ZU15" s="29"/>
-      <c r="ZV15" s="29"/>
-      <c r="ZW15" s="29"/>
-      <c r="ZX15" s="29"/>
-      <c r="ZY15" s="29"/>
-      <c r="ZZ15" s="30"/>
-      <c r="AAA15" s="28"/>
-      <c r="AAB15" s="29"/>
-      <c r="AAC15" s="29"/>
-      <c r="AAD15" s="29"/>
-      <c r="AAE15" s="29"/>
-      <c r="AAF15" s="29"/>
-      <c r="AAG15" s="29"/>
-      <c r="AAH15" s="29"/>
-      <c r="AAI15" s="29"/>
-      <c r="AAJ15" s="29"/>
-      <c r="AAK15" s="29"/>
-      <c r="AAL15" s="29"/>
-      <c r="AAM15" s="29"/>
-      <c r="AAN15" s="29"/>
-      <c r="AAO15" s="29"/>
-      <c r="AAP15" s="29"/>
-      <c r="AAQ15" s="29"/>
-      <c r="AAR15" s="29"/>
-      <c r="AAS15" s="29"/>
-      <c r="AAT15" s="30"/>
-      <c r="AAU15" s="28"/>
-      <c r="AAV15" s="29"/>
-      <c r="AAW15" s="29"/>
-      <c r="AAX15" s="29"/>
-      <c r="AAY15" s="29"/>
-      <c r="AAZ15" s="29"/>
-      <c r="ABA15" s="29"/>
-      <c r="ABB15" s="29"/>
-      <c r="ABC15" s="29"/>
-      <c r="ABD15" s="29"/>
-      <c r="ABE15" s="29"/>
-      <c r="ABF15" s="29"/>
-      <c r="ABG15" s="29"/>
-      <c r="ABH15" s="29"/>
-      <c r="ABI15" s="29"/>
-      <c r="ABJ15" s="29"/>
-      <c r="ABK15" s="29"/>
-      <c r="ABL15" s="29"/>
-      <c r="ABM15" s="29"/>
-      <c r="ABN15" s="30"/>
-      <c r="ABO15" s="28"/>
-      <c r="ABP15" s="29"/>
-      <c r="ABQ15" s="29"/>
-      <c r="ABR15" s="29"/>
-      <c r="ABS15" s="29"/>
-      <c r="ABT15" s="29"/>
-      <c r="ABU15" s="29"/>
-      <c r="ABV15" s="29"/>
-      <c r="ABW15" s="29"/>
-      <c r="ABX15" s="29"/>
-      <c r="ABY15" s="29"/>
-      <c r="ABZ15" s="29"/>
-      <c r="ACA15" s="29"/>
-      <c r="ACB15" s="29"/>
-      <c r="ACC15" s="29"/>
-      <c r="ACD15" s="29"/>
-      <c r="ACE15" s="29"/>
-      <c r="ACF15" s="29"/>
-      <c r="ACG15" s="29"/>
-      <c r="ACH15" s="30"/>
-      <c r="ACI15" s="28"/>
-      <c r="ACJ15" s="29"/>
-      <c r="ACK15" s="29"/>
-      <c r="ACL15" s="29"/>
-      <c r="ACM15" s="29"/>
-      <c r="ACN15" s="29"/>
-      <c r="ACO15" s="29"/>
-      <c r="ACP15" s="29"/>
-      <c r="ACQ15" s="29"/>
-      <c r="ACR15" s="29"/>
-      <c r="ACS15" s="29"/>
-      <c r="ACT15" s="29"/>
-      <c r="ACU15" s="29"/>
-      <c r="ACV15" s="29"/>
-      <c r="ACW15" s="29"/>
-      <c r="ACX15" s="29"/>
-      <c r="ACY15" s="29"/>
-      <c r="ACZ15" s="29"/>
-      <c r="ADA15" s="29"/>
-      <c r="ADB15" s="30"/>
-      <c r="ADC15" s="28"/>
-      <c r="ADD15" s="29"/>
-      <c r="ADE15" s="29"/>
-      <c r="ADF15" s="29"/>
-      <c r="ADG15" s="29"/>
-      <c r="ADH15" s="29"/>
-      <c r="ADI15" s="29"/>
-      <c r="ADJ15" s="29"/>
-      <c r="ADK15" s="29"/>
-      <c r="ADL15" s="29"/>
-      <c r="ADM15" s="29"/>
-      <c r="ADN15" s="29"/>
-      <c r="ADO15" s="29"/>
-      <c r="ADP15" s="29"/>
-      <c r="ADQ15" s="29"/>
-      <c r="ADR15" s="29"/>
-      <c r="ADS15" s="29"/>
-      <c r="ADT15" s="29"/>
-      <c r="ADU15" s="29"/>
-      <c r="ADV15" s="30"/>
-      <c r="ADW15" s="28"/>
-      <c r="ADX15" s="29"/>
-      <c r="ADY15" s="29"/>
-      <c r="ADZ15" s="29"/>
-      <c r="AEA15" s="29"/>
-      <c r="AEB15" s="29"/>
-      <c r="AEC15" s="29"/>
-      <c r="AED15" s="29"/>
-      <c r="AEE15" s="29"/>
-      <c r="AEF15" s="29"/>
-      <c r="AEG15" s="29"/>
-      <c r="AEH15" s="29"/>
-      <c r="AEI15" s="29"/>
-      <c r="AEJ15" s="29"/>
-      <c r="AEK15" s="29"/>
-      <c r="AEL15" s="29"/>
-      <c r="AEM15" s="29"/>
-      <c r="AEN15" s="29"/>
-      <c r="AEO15" s="29"/>
-      <c r="AEP15" s="30"/>
-      <c r="AEQ15" s="28"/>
-      <c r="AER15" s="29"/>
-      <c r="AES15" s="29"/>
-      <c r="AET15" s="29"/>
-      <c r="AEU15" s="29"/>
-      <c r="AEV15" s="29"/>
-      <c r="AEW15" s="29"/>
-      <c r="AEX15" s="29"/>
-      <c r="AEY15" s="29"/>
-      <c r="AEZ15" s="29"/>
-      <c r="AFA15" s="29"/>
-      <c r="AFB15" s="29"/>
-      <c r="AFC15" s="29"/>
-      <c r="AFD15" s="29"/>
-      <c r="AFE15" s="29"/>
-      <c r="AFF15" s="29"/>
-      <c r="AFG15" s="29"/>
-      <c r="AFH15" s="29"/>
-      <c r="AFI15" s="29"/>
-      <c r="AFJ15" s="30"/>
-      <c r="AFK15" s="28"/>
-      <c r="AFL15" s="29"/>
-      <c r="AFM15" s="29"/>
-      <c r="AFN15" s="29"/>
-      <c r="AFO15" s="29"/>
-      <c r="AFP15" s="29"/>
-      <c r="AFQ15" s="29"/>
-      <c r="AFR15" s="29"/>
-      <c r="AFS15" s="29"/>
-      <c r="AFT15" s="29"/>
-      <c r="AFU15" s="29"/>
-      <c r="AFV15" s="29"/>
-      <c r="AFW15" s="29"/>
-      <c r="AFX15" s="29"/>
-      <c r="AFY15" s="29"/>
-      <c r="AFZ15" s="29"/>
-      <c r="AGA15" s="29"/>
-      <c r="AGB15" s="29"/>
-      <c r="AGC15" s="29"/>
-      <c r="AGD15" s="30"/>
-      <c r="AGE15" s="28"/>
-      <c r="AGF15" s="29"/>
-      <c r="AGG15" s="29"/>
-      <c r="AGH15" s="29"/>
-      <c r="AGI15" s="29"/>
-      <c r="AGJ15" s="29"/>
-      <c r="AGK15" s="29"/>
-      <c r="AGL15" s="29"/>
-      <c r="AGM15" s="29"/>
-      <c r="AGN15" s="29"/>
-      <c r="AGO15" s="29"/>
-      <c r="AGP15" s="29"/>
-      <c r="AGQ15" s="29"/>
-      <c r="AGR15" s="29"/>
-      <c r="AGS15" s="29"/>
-      <c r="AGT15" s="29"/>
-      <c r="AGU15" s="29"/>
-      <c r="AGV15" s="29"/>
-      <c r="AGW15" s="29"/>
-      <c r="AGX15" s="30"/>
-      <c r="AGY15" s="28"/>
-      <c r="AGZ15" s="29"/>
-      <c r="AHA15" s="29"/>
-      <c r="AHB15" s="29"/>
-      <c r="AHC15" s="29"/>
-      <c r="AHD15" s="29"/>
-      <c r="AHE15" s="29"/>
-      <c r="AHF15" s="29"/>
-      <c r="AHG15" s="29"/>
-      <c r="AHH15" s="29"/>
-      <c r="AHI15" s="29"/>
-      <c r="AHJ15" s="29"/>
-      <c r="AHK15" s="29"/>
-      <c r="AHL15" s="29"/>
-      <c r="AHM15" s="29"/>
-      <c r="AHN15" s="29"/>
-      <c r="AHO15" s="29"/>
-      <c r="AHP15" s="29"/>
-      <c r="AHQ15" s="29"/>
-      <c r="AHR15" s="30"/>
-      <c r="AHS15" s="28"/>
-      <c r="AHT15" s="29"/>
-      <c r="AHU15" s="29"/>
-      <c r="AHV15" s="29"/>
-      <c r="AHW15" s="29"/>
-      <c r="AHX15" s="29"/>
-      <c r="AHY15" s="29"/>
-      <c r="AHZ15" s="29"/>
-      <c r="AIA15" s="29"/>
-      <c r="AIB15" s="29"/>
-      <c r="AIC15" s="29"/>
-      <c r="AID15" s="29"/>
-      <c r="AIE15" s="29"/>
-      <c r="AIF15" s="29"/>
-      <c r="AIG15" s="29"/>
-      <c r="AIH15" s="29"/>
-      <c r="AII15" s="29"/>
-      <c r="AIJ15" s="29"/>
-      <c r="AIK15" s="29"/>
-      <c r="AIL15" s="30"/>
-      <c r="AIM15" s="28"/>
-      <c r="AIN15" s="29"/>
-      <c r="AIO15" s="29"/>
-      <c r="AIP15" s="29"/>
-      <c r="AIQ15" s="29"/>
-      <c r="AIR15" s="29"/>
-      <c r="AIS15" s="29"/>
-      <c r="AIT15" s="29"/>
-      <c r="AIU15" s="29"/>
-      <c r="AIV15" s="29"/>
-      <c r="AIW15" s="29"/>
-      <c r="AIX15" s="29"/>
-      <c r="AIY15" s="29"/>
-      <c r="AIZ15" s="29"/>
-      <c r="AJA15" s="29"/>
-      <c r="AJB15" s="29"/>
-      <c r="AJC15" s="29"/>
-      <c r="AJD15" s="29"/>
-      <c r="AJE15" s="29"/>
-      <c r="AJF15" s="30"/>
-      <c r="AJG15" s="28"/>
-      <c r="AJH15" s="29"/>
-      <c r="AJI15" s="29"/>
-      <c r="AJJ15" s="29"/>
-      <c r="AJK15" s="29"/>
-      <c r="AJL15" s="29"/>
-      <c r="AJM15" s="29"/>
-      <c r="AJN15" s="29"/>
-      <c r="AJO15" s="29"/>
-      <c r="AJP15" s="29"/>
-      <c r="AJQ15" s="29"/>
-      <c r="AJR15" s="29"/>
-      <c r="AJS15" s="29"/>
-      <c r="AJT15" s="29"/>
-      <c r="AJU15" s="29"/>
-      <c r="AJV15" s="29"/>
-      <c r="AJW15" s="29"/>
-      <c r="AJX15" s="29"/>
-      <c r="AJY15" s="29"/>
-      <c r="AJZ15" s="30"/>
-      <c r="AKA15" s="28"/>
-      <c r="AKB15" s="29"/>
-      <c r="AKC15" s="29"/>
-      <c r="AKD15" s="29"/>
-      <c r="AKE15" s="29"/>
-      <c r="AKF15" s="29"/>
-      <c r="AKG15" s="29"/>
-      <c r="AKH15" s="29"/>
-      <c r="AKI15" s="29"/>
-      <c r="AKJ15" s="29"/>
-      <c r="AKK15" s="29"/>
-      <c r="AKL15" s="29"/>
-      <c r="AKM15" s="29"/>
-      <c r="AKN15" s="29"/>
-      <c r="AKO15" s="29"/>
-      <c r="AKP15" s="29"/>
-      <c r="AKQ15" s="29"/>
-      <c r="AKR15" s="29"/>
-      <c r="AKS15" s="29"/>
-      <c r="AKT15" s="30"/>
-      <c r="AKU15" s="28"/>
-      <c r="AKV15" s="29"/>
-      <c r="AKW15" s="29"/>
-      <c r="AKX15" s="29"/>
-      <c r="AKY15" s="29"/>
-      <c r="AKZ15" s="29"/>
-      <c r="ALA15" s="29"/>
-      <c r="ALB15" s="29"/>
-      <c r="ALC15" s="29"/>
-      <c r="ALD15" s="29"/>
-      <c r="ALE15" s="29"/>
-      <c r="ALF15" s="29"/>
-      <c r="ALG15" s="29"/>
-      <c r="ALH15" s="29"/>
-      <c r="ALI15" s="29"/>
-      <c r="ALJ15" s="29"/>
-      <c r="ALK15" s="29"/>
-      <c r="ALL15" s="29"/>
-      <c r="ALM15" s="29"/>
-      <c r="ALN15" s="30"/>
-      <c r="ALO15" s="28"/>
-      <c r="ALP15" s="29"/>
-      <c r="ALQ15" s="29"/>
-      <c r="ALR15" s="29"/>
-      <c r="ALS15" s="29"/>
-      <c r="ALT15" s="29"/>
-      <c r="ALU15" s="29"/>
-      <c r="ALV15" s="29"/>
-      <c r="ALW15" s="29"/>
-      <c r="ALX15" s="29"/>
-      <c r="ALY15" s="29"/>
-      <c r="ALZ15" s="29"/>
-      <c r="AMA15" s="29"/>
-      <c r="AMB15" s="29"/>
-      <c r="AMC15" s="29"/>
-      <c r="AMD15" s="29"/>
-      <c r="AME15" s="29"/>
-      <c r="AMF15" s="29"/>
-      <c r="AMG15" s="29"/>
-      <c r="AMH15" s="30"/>
-      <c r="AMI15" s="28"/>
-      <c r="AMJ15" s="29"/>
-      <c r="AMK15" s="29"/>
-      <c r="AML15" s="29"/>
-      <c r="AMM15" s="29"/>
-      <c r="AMN15" s="29"/>
-      <c r="AMO15" s="29"/>
-      <c r="AMP15" s="29"/>
-      <c r="AMQ15" s="29"/>
-      <c r="AMR15" s="29"/>
-      <c r="AMS15" s="29"/>
-      <c r="AMT15" s="29"/>
-      <c r="AMU15" s="29"/>
-      <c r="AMV15" s="29"/>
-      <c r="AMW15" s="29"/>
-      <c r="AMX15" s="29"/>
-      <c r="AMY15" s="29"/>
-      <c r="AMZ15" s="29"/>
-      <c r="ANA15" s="29"/>
-      <c r="ANB15" s="30"/>
-      <c r="ANC15" s="28"/>
-      <c r="AND15" s="29"/>
-      <c r="ANE15" s="29"/>
-      <c r="ANF15" s="29"/>
-      <c r="ANG15" s="29"/>
-      <c r="ANH15" s="29"/>
-      <c r="ANI15" s="29"/>
-      <c r="ANJ15" s="29"/>
-      <c r="ANK15" s="29"/>
-      <c r="ANL15" s="29"/>
-      <c r="ANM15" s="29"/>
-      <c r="ANN15" s="29"/>
-      <c r="ANO15" s="29"/>
-      <c r="ANP15" s="29"/>
-      <c r="ANQ15" s="29"/>
-      <c r="ANR15" s="29"/>
-      <c r="ANS15" s="29"/>
-      <c r="ANT15" s="29"/>
-      <c r="ANU15" s="29"/>
-      <c r="ANV15" s="30"/>
-      <c r="ANW15" s="28"/>
-      <c r="ANX15" s="29"/>
-      <c r="ANY15" s="29"/>
-      <c r="ANZ15" s="29"/>
-      <c r="AOA15" s="29"/>
-      <c r="AOB15" s="29"/>
-      <c r="AOC15" s="29"/>
-      <c r="AOD15" s="29"/>
-      <c r="AOE15" s="29"/>
-      <c r="AOF15" s="29"/>
-      <c r="AOG15" s="29"/>
-      <c r="AOH15" s="29"/>
-      <c r="AOI15" s="29"/>
-      <c r="AOJ15" s="29"/>
-      <c r="AOK15" s="29"/>
-      <c r="AOL15" s="29"/>
-      <c r="AOM15" s="29"/>
-      <c r="AON15" s="29"/>
-      <c r="AOO15" s="29"/>
-      <c r="AOP15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="30"/>
+      <c r="BL15" s="31"/>
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="31"/>
+      <c r="BO15" s="31"/>
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="31"/>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="31"/>
+      <c r="BU15" s="31"/>
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="31"/>
+      <c r="BX15" s="31"/>
+      <c r="BY15" s="31"/>
+      <c r="BZ15" s="31"/>
+      <c r="CA15" s="31"/>
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="31"/>
+      <c r="CD15" s="32"/>
+      <c r="CE15" s="30"/>
+      <c r="CF15" s="31"/>
+      <c r="CG15" s="31"/>
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="31"/>
+      <c r="CJ15" s="31"/>
+      <c r="CK15" s="31"/>
+      <c r="CL15" s="31"/>
+      <c r="CM15" s="31"/>
+      <c r="CN15" s="31"/>
+      <c r="CO15" s="31"/>
+      <c r="CP15" s="31"/>
+      <c r="CQ15" s="31"/>
+      <c r="CR15" s="31"/>
+      <c r="CS15" s="31"/>
+      <c r="CT15" s="31"/>
+      <c r="CU15" s="31"/>
+      <c r="CV15" s="31"/>
+      <c r="CW15" s="31"/>
+      <c r="CX15" s="32"/>
+      <c r="CY15" s="30"/>
+      <c r="CZ15" s="31"/>
+      <c r="DA15" s="31"/>
+      <c r="DB15" s="31"/>
+      <c r="DC15" s="31"/>
+      <c r="DD15" s="31"/>
+      <c r="DE15" s="31"/>
+      <c r="DF15" s="31"/>
+      <c r="DG15" s="31"/>
+      <c r="DH15" s="31"/>
+      <c r="DI15" s="31"/>
+      <c r="DJ15" s="31"/>
+      <c r="DK15" s="31"/>
+      <c r="DL15" s="31"/>
+      <c r="DM15" s="31"/>
+      <c r="DN15" s="31"/>
+      <c r="DO15" s="31"/>
+      <c r="DP15" s="31"/>
+      <c r="DQ15" s="31"/>
+      <c r="DR15" s="32"/>
+      <c r="DS15" s="30"/>
+      <c r="DT15" s="31"/>
+      <c r="DU15" s="31"/>
+      <c r="DV15" s="31"/>
+      <c r="DW15" s="31"/>
+      <c r="DX15" s="31"/>
+      <c r="DY15" s="31"/>
+      <c r="DZ15" s="31"/>
+      <c r="EA15" s="31"/>
+      <c r="EB15" s="31"/>
+      <c r="EC15" s="31"/>
+      <c r="ED15" s="31"/>
+      <c r="EE15" s="31"/>
+      <c r="EF15" s="31"/>
+      <c r="EG15" s="31"/>
+      <c r="EH15" s="31"/>
+      <c r="EI15" s="31"/>
+      <c r="EJ15" s="31"/>
+      <c r="EK15" s="31"/>
+      <c r="EL15" s="32"/>
+      <c r="EM15" s="30"/>
+      <c r="EN15" s="31"/>
+      <c r="EO15" s="31"/>
+      <c r="EP15" s="31"/>
+      <c r="EQ15" s="31"/>
+      <c r="ER15" s="31"/>
+      <c r="ES15" s="31"/>
+      <c r="ET15" s="31"/>
+      <c r="EU15" s="31"/>
+      <c r="EV15" s="31"/>
+      <c r="EW15" s="31"/>
+      <c r="EX15" s="31"/>
+      <c r="EY15" s="31"/>
+      <c r="EZ15" s="31"/>
+      <c r="FA15" s="31"/>
+      <c r="FB15" s="31"/>
+      <c r="FC15" s="31"/>
+      <c r="FD15" s="31"/>
+      <c r="FE15" s="31"/>
+      <c r="FF15" s="32"/>
+      <c r="FG15" s="30"/>
+      <c r="FH15" s="31"/>
+      <c r="FI15" s="31"/>
+      <c r="FJ15" s="31"/>
+      <c r="FK15" s="31"/>
+      <c r="FL15" s="31"/>
+      <c r="FM15" s="31"/>
+      <c r="FN15" s="31"/>
+      <c r="FO15" s="31"/>
+      <c r="FP15" s="31"/>
+      <c r="FQ15" s="31"/>
+      <c r="FR15" s="31"/>
+      <c r="FS15" s="31"/>
+      <c r="FT15" s="31"/>
+      <c r="FU15" s="31"/>
+      <c r="FV15" s="31"/>
+      <c r="FW15" s="31"/>
+      <c r="FX15" s="31"/>
+      <c r="FY15" s="31"/>
+      <c r="FZ15" s="32"/>
+      <c r="GA15" s="30"/>
+      <c r="GB15" s="31"/>
+      <c r="GC15" s="31"/>
+      <c r="GD15" s="31"/>
+      <c r="GE15" s="31"/>
+      <c r="GF15" s="31"/>
+      <c r="GG15" s="31"/>
+      <c r="GH15" s="31"/>
+      <c r="GI15" s="31"/>
+      <c r="GJ15" s="31"/>
+      <c r="GK15" s="31"/>
+      <c r="GL15" s="31"/>
+      <c r="GM15" s="31"/>
+      <c r="GN15" s="31"/>
+      <c r="GO15" s="31"/>
+      <c r="GP15" s="31"/>
+      <c r="GQ15" s="31"/>
+      <c r="GR15" s="31"/>
+      <c r="GS15" s="31"/>
+      <c r="GT15" s="32"/>
+      <c r="GU15" s="30"/>
+      <c r="GV15" s="31"/>
+      <c r="GW15" s="31"/>
+      <c r="GX15" s="31"/>
+      <c r="GY15" s="31"/>
+      <c r="GZ15" s="31"/>
+      <c r="HA15" s="31"/>
+      <c r="HB15" s="31"/>
+      <c r="HC15" s="31"/>
+      <c r="HD15" s="31"/>
+      <c r="HE15" s="31"/>
+      <c r="HF15" s="31"/>
+      <c r="HG15" s="31"/>
+      <c r="HH15" s="31"/>
+      <c r="HI15" s="31"/>
+      <c r="HJ15" s="31"/>
+      <c r="HK15" s="31"/>
+      <c r="HL15" s="31"/>
+      <c r="HM15" s="31"/>
+      <c r="HN15" s="32"/>
+      <c r="HO15" s="30"/>
+      <c r="HP15" s="31"/>
+      <c r="HQ15" s="31"/>
+      <c r="HR15" s="31"/>
+      <c r="HS15" s="31"/>
+      <c r="HT15" s="31"/>
+      <c r="HU15" s="31"/>
+      <c r="HV15" s="31"/>
+      <c r="HW15" s="31"/>
+      <c r="HX15" s="31"/>
+      <c r="HY15" s="31"/>
+      <c r="HZ15" s="31"/>
+      <c r="IA15" s="31"/>
+      <c r="IB15" s="31"/>
+      <c r="IC15" s="31"/>
+      <c r="ID15" s="31"/>
+      <c r="IE15" s="31"/>
+      <c r="IF15" s="31"/>
+      <c r="IG15" s="31"/>
+      <c r="IH15" s="32"/>
+      <c r="II15" s="30"/>
+      <c r="IJ15" s="31"/>
+      <c r="IK15" s="31"/>
+      <c r="IL15" s="31"/>
+      <c r="IM15" s="31"/>
+      <c r="IN15" s="31"/>
+      <c r="IO15" s="31"/>
+      <c r="IP15" s="31"/>
+      <c r="IQ15" s="31"/>
+      <c r="IR15" s="31"/>
+      <c r="IS15" s="31"/>
+      <c r="IT15" s="31"/>
+      <c r="IU15" s="31"/>
+      <c r="IV15" s="31"/>
+      <c r="IW15" s="31"/>
+      <c r="IX15" s="31"/>
+      <c r="IY15" s="31"/>
+      <c r="IZ15" s="31"/>
+      <c r="JA15" s="31"/>
+      <c r="JB15" s="32"/>
+      <c r="JC15" s="30"/>
+      <c r="JD15" s="31"/>
+      <c r="JE15" s="31"/>
+      <c r="JF15" s="31"/>
+      <c r="JG15" s="31"/>
+      <c r="JH15" s="31"/>
+      <c r="JI15" s="31"/>
+      <c r="JJ15" s="31"/>
+      <c r="JK15" s="31"/>
+      <c r="JL15" s="31"/>
+      <c r="JM15" s="31"/>
+      <c r="JN15" s="31"/>
+      <c r="JO15" s="31"/>
+      <c r="JP15" s="31"/>
+      <c r="JQ15" s="31"/>
+      <c r="JR15" s="31"/>
+      <c r="JS15" s="31"/>
+      <c r="JT15" s="31"/>
+      <c r="JU15" s="31"/>
+      <c r="JV15" s="32"/>
+      <c r="JW15" s="30"/>
+      <c r="JX15" s="31"/>
+      <c r="JY15" s="31"/>
+      <c r="JZ15" s="31"/>
+      <c r="KA15" s="31"/>
+      <c r="KB15" s="31"/>
+      <c r="KC15" s="31"/>
+      <c r="KD15" s="31"/>
+      <c r="KE15" s="31"/>
+      <c r="KF15" s="31"/>
+      <c r="KG15" s="31"/>
+      <c r="KH15" s="31"/>
+      <c r="KI15" s="31"/>
+      <c r="KJ15" s="31"/>
+      <c r="KK15" s="31"/>
+      <c r="KL15" s="31"/>
+      <c r="KM15" s="31"/>
+      <c r="KN15" s="31"/>
+      <c r="KO15" s="31"/>
+      <c r="KP15" s="32"/>
+      <c r="KQ15" s="30"/>
+      <c r="KR15" s="31"/>
+      <c r="KS15" s="31"/>
+      <c r="KT15" s="31"/>
+      <c r="KU15" s="31"/>
+      <c r="KV15" s="31"/>
+      <c r="KW15" s="31"/>
+      <c r="KX15" s="31"/>
+      <c r="KY15" s="31"/>
+      <c r="KZ15" s="31"/>
+      <c r="LA15" s="31"/>
+      <c r="LB15" s="31"/>
+      <c r="LC15" s="31"/>
+      <c r="LD15" s="31"/>
+      <c r="LE15" s="31"/>
+      <c r="LF15" s="31"/>
+      <c r="LG15" s="31"/>
+      <c r="LH15" s="31"/>
+      <c r="LI15" s="31"/>
+      <c r="LJ15" s="32"/>
+      <c r="LK15" s="30"/>
+      <c r="LL15" s="31"/>
+      <c r="LM15" s="31"/>
+      <c r="LN15" s="31"/>
+      <c r="LO15" s="31"/>
+      <c r="LP15" s="31"/>
+      <c r="LQ15" s="31"/>
+      <c r="LR15" s="31"/>
+      <c r="LS15" s="31"/>
+      <c r="LT15" s="31"/>
+      <c r="LU15" s="31"/>
+      <c r="LV15" s="31"/>
+      <c r="LW15" s="31"/>
+      <c r="LX15" s="31"/>
+      <c r="LY15" s="31"/>
+      <c r="LZ15" s="31"/>
+      <c r="MA15" s="31"/>
+      <c r="MB15" s="31"/>
+      <c r="MC15" s="31"/>
+      <c r="MD15" s="32"/>
+      <c r="ME15" s="30"/>
+      <c r="MF15" s="31"/>
+      <c r="MG15" s="31"/>
+      <c r="MH15" s="31"/>
+      <c r="MI15" s="31"/>
+      <c r="MJ15" s="31"/>
+      <c r="MK15" s="31"/>
+      <c r="ML15" s="31"/>
+      <c r="MM15" s="31"/>
+      <c r="MN15" s="31"/>
+      <c r="MO15" s="31"/>
+      <c r="MP15" s="31"/>
+      <c r="MQ15" s="31"/>
+      <c r="MR15" s="31"/>
+      <c r="MS15" s="31"/>
+      <c r="MT15" s="31"/>
+      <c r="MU15" s="31"/>
+      <c r="MV15" s="31"/>
+      <c r="MW15" s="31"/>
+      <c r="MX15" s="32"/>
+      <c r="MY15" s="30"/>
+      <c r="MZ15" s="31"/>
+      <c r="NA15" s="31"/>
+      <c r="NB15" s="31"/>
+      <c r="NC15" s="31"/>
+      <c r="ND15" s="31"/>
+      <c r="NE15" s="31"/>
+      <c r="NF15" s="31"/>
+      <c r="NG15" s="31"/>
+      <c r="NH15" s="31"/>
+      <c r="NI15" s="31"/>
+      <c r="NJ15" s="31"/>
+      <c r="NK15" s="31"/>
+      <c r="NL15" s="31"/>
+      <c r="NM15" s="31"/>
+      <c r="NN15" s="31"/>
+      <c r="NO15" s="31"/>
+      <c r="NP15" s="31"/>
+      <c r="NQ15" s="31"/>
+      <c r="NR15" s="32"/>
+      <c r="NS15" s="30"/>
+      <c r="NT15" s="31"/>
+      <c r="NU15" s="31"/>
+      <c r="NV15" s="31"/>
+      <c r="NW15" s="31"/>
+      <c r="NX15" s="31"/>
+      <c r="NY15" s="31"/>
+      <c r="NZ15" s="31"/>
+      <c r="OA15" s="31"/>
+      <c r="OB15" s="31"/>
+      <c r="OC15" s="31"/>
+      <c r="OD15" s="31"/>
+      <c r="OE15" s="31"/>
+      <c r="OF15" s="31"/>
+      <c r="OG15" s="31"/>
+      <c r="OH15" s="31"/>
+      <c r="OI15" s="31"/>
+      <c r="OJ15" s="31"/>
+      <c r="OK15" s="31"/>
+      <c r="OL15" s="32"/>
+      <c r="OM15" s="30"/>
+      <c r="ON15" s="31"/>
+      <c r="OO15" s="31"/>
+      <c r="OP15" s="31"/>
+      <c r="OQ15" s="31"/>
+      <c r="OR15" s="31"/>
+      <c r="OS15" s="31"/>
+      <c r="OT15" s="31"/>
+      <c r="OU15" s="31"/>
+      <c r="OV15" s="31"/>
+      <c r="OW15" s="31"/>
+      <c r="OX15" s="31"/>
+      <c r="OY15" s="31"/>
+      <c r="OZ15" s="31"/>
+      <c r="PA15" s="31"/>
+      <c r="PB15" s="31"/>
+      <c r="PC15" s="31"/>
+      <c r="PD15" s="31"/>
+      <c r="PE15" s="31"/>
+      <c r="PF15" s="32"/>
+      <c r="PG15" s="30"/>
+      <c r="PH15" s="31"/>
+      <c r="PI15" s="31"/>
+      <c r="PJ15" s="31"/>
+      <c r="PK15" s="31"/>
+      <c r="PL15" s="31"/>
+      <c r="PM15" s="31"/>
+      <c r="PN15" s="31"/>
+      <c r="PO15" s="31"/>
+      <c r="PP15" s="31"/>
+      <c r="PQ15" s="31"/>
+      <c r="PR15" s="31"/>
+      <c r="PS15" s="31"/>
+      <c r="PT15" s="31"/>
+      <c r="PU15" s="31"/>
+      <c r="PV15" s="31"/>
+      <c r="PW15" s="31"/>
+      <c r="PX15" s="31"/>
+      <c r="PY15" s="31"/>
+      <c r="PZ15" s="32"/>
+      <c r="QA15" s="30"/>
+      <c r="QB15" s="31"/>
+      <c r="QC15" s="31"/>
+      <c r="QD15" s="31"/>
+      <c r="QE15" s="31"/>
+      <c r="QF15" s="31"/>
+      <c r="QG15" s="31"/>
+      <c r="QH15" s="31"/>
+      <c r="QI15" s="31"/>
+      <c r="QJ15" s="31"/>
+      <c r="QK15" s="31"/>
+      <c r="QL15" s="31"/>
+      <c r="QM15" s="31"/>
+      <c r="QN15" s="31"/>
+      <c r="QO15" s="31"/>
+      <c r="QP15" s="31"/>
+      <c r="QQ15" s="31"/>
+      <c r="QR15" s="31"/>
+      <c r="QS15" s="31"/>
+      <c r="QT15" s="32"/>
+      <c r="QU15" s="30"/>
+      <c r="QV15" s="31"/>
+      <c r="QW15" s="31"/>
+      <c r="QX15" s="31"/>
+      <c r="QY15" s="31"/>
+      <c r="QZ15" s="31"/>
+      <c r="RA15" s="31"/>
+      <c r="RB15" s="31"/>
+      <c r="RC15" s="31"/>
+      <c r="RD15" s="31"/>
+      <c r="RE15" s="31"/>
+      <c r="RF15" s="31"/>
+      <c r="RG15" s="31"/>
+      <c r="RH15" s="31"/>
+      <c r="RI15" s="31"/>
+      <c r="RJ15" s="31"/>
+      <c r="RK15" s="31"/>
+      <c r="RL15" s="31"/>
+      <c r="RM15" s="31"/>
+      <c r="RN15" s="32"/>
+      <c r="RO15" s="30"/>
+      <c r="RP15" s="31"/>
+      <c r="RQ15" s="31"/>
+      <c r="RR15" s="31"/>
+      <c r="RS15" s="31"/>
+      <c r="RT15" s="31"/>
+      <c r="RU15" s="31"/>
+      <c r="RV15" s="31"/>
+      <c r="RW15" s="31"/>
+      <c r="RX15" s="31"/>
+      <c r="RY15" s="31"/>
+      <c r="RZ15" s="31"/>
+      <c r="SA15" s="31"/>
+      <c r="SB15" s="31"/>
+      <c r="SC15" s="31"/>
+      <c r="SD15" s="31"/>
+      <c r="SE15" s="31"/>
+      <c r="SF15" s="31"/>
+      <c r="SG15" s="31"/>
+      <c r="SH15" s="32"/>
+      <c r="SI15" s="30"/>
+      <c r="SJ15" s="31"/>
+      <c r="SK15" s="31"/>
+      <c r="SL15" s="31"/>
+      <c r="SM15" s="31"/>
+      <c r="SN15" s="31"/>
+      <c r="SO15" s="31"/>
+      <c r="SP15" s="31"/>
+      <c r="SQ15" s="31"/>
+      <c r="SR15" s="31"/>
+      <c r="SS15" s="31"/>
+      <c r="ST15" s="31"/>
+      <c r="SU15" s="31"/>
+      <c r="SV15" s="31"/>
+      <c r="SW15" s="31"/>
+      <c r="SX15" s="31"/>
+      <c r="SY15" s="31"/>
+      <c r="SZ15" s="31"/>
+      <c r="TA15" s="31"/>
+      <c r="TB15" s="32"/>
+      <c r="TC15" s="30"/>
+      <c r="TD15" s="31"/>
+      <c r="TE15" s="31"/>
+      <c r="TF15" s="31"/>
+      <c r="TG15" s="31"/>
+      <c r="TH15" s="31"/>
+      <c r="TI15" s="31"/>
+      <c r="TJ15" s="31"/>
+      <c r="TK15" s="31"/>
+      <c r="TL15" s="31"/>
+      <c r="TM15" s="31"/>
+      <c r="TN15" s="31"/>
+      <c r="TO15" s="31"/>
+      <c r="TP15" s="31"/>
+      <c r="TQ15" s="31"/>
+      <c r="TR15" s="31"/>
+      <c r="TS15" s="31"/>
+      <c r="TT15" s="31"/>
+      <c r="TU15" s="31"/>
+      <c r="TV15" s="32"/>
+      <c r="TW15" s="30"/>
+      <c r="TX15" s="31"/>
+      <c r="TY15" s="31"/>
+      <c r="TZ15" s="31"/>
+      <c r="UA15" s="31"/>
+      <c r="UB15" s="31"/>
+      <c r="UC15" s="31"/>
+      <c r="UD15" s="31"/>
+      <c r="UE15" s="31"/>
+      <c r="UF15" s="31"/>
+      <c r="UG15" s="31"/>
+      <c r="UH15" s="31"/>
+      <c r="UI15" s="31"/>
+      <c r="UJ15" s="31"/>
+      <c r="UK15" s="31"/>
+      <c r="UL15" s="31"/>
+      <c r="UM15" s="31"/>
+      <c r="UN15" s="31"/>
+      <c r="UO15" s="31"/>
+      <c r="UP15" s="32"/>
+      <c r="UQ15" s="30"/>
+      <c r="UR15" s="31"/>
+      <c r="US15" s="31"/>
+      <c r="UT15" s="31"/>
+      <c r="UU15" s="31"/>
+      <c r="UV15" s="31"/>
+      <c r="UW15" s="31"/>
+      <c r="UX15" s="31"/>
+      <c r="UY15" s="31"/>
+      <c r="UZ15" s="31"/>
+      <c r="VA15" s="31"/>
+      <c r="VB15" s="31"/>
+      <c r="VC15" s="31"/>
+      <c r="VD15" s="31"/>
+      <c r="VE15" s="31"/>
+      <c r="VF15" s="31"/>
+      <c r="VG15" s="31"/>
+      <c r="VH15" s="31"/>
+      <c r="VI15" s="31"/>
+      <c r="VJ15" s="32"/>
+      <c r="VK15" s="30"/>
+      <c r="VL15" s="31"/>
+      <c r="VM15" s="31"/>
+      <c r="VN15" s="31"/>
+      <c r="VO15" s="31"/>
+      <c r="VP15" s="31"/>
+      <c r="VQ15" s="31"/>
+      <c r="VR15" s="31"/>
+      <c r="VS15" s="31"/>
+      <c r="VT15" s="31"/>
+      <c r="VU15" s="31"/>
+      <c r="VV15" s="31"/>
+      <c r="VW15" s="31"/>
+      <c r="VX15" s="31"/>
+      <c r="VY15" s="31"/>
+      <c r="VZ15" s="31"/>
+      <c r="WA15" s="31"/>
+      <c r="WB15" s="31"/>
+      <c r="WC15" s="31"/>
+      <c r="WD15" s="32"/>
+      <c r="WE15" s="30"/>
+      <c r="WF15" s="31"/>
+      <c r="WG15" s="31"/>
+      <c r="WH15" s="31"/>
+      <c r="WI15" s="31"/>
+      <c r="WJ15" s="31"/>
+      <c r="WK15" s="31"/>
+      <c r="WL15" s="31"/>
+      <c r="WM15" s="31"/>
+      <c r="WN15" s="31"/>
+      <c r="WO15" s="31"/>
+      <c r="WP15" s="31"/>
+      <c r="WQ15" s="31"/>
+      <c r="WR15" s="31"/>
+      <c r="WS15" s="31"/>
+      <c r="WT15" s="31"/>
+      <c r="WU15" s="31"/>
+      <c r="WV15" s="31"/>
+      <c r="WW15" s="31"/>
+      <c r="WX15" s="32"/>
+      <c r="WY15" s="30"/>
+      <c r="WZ15" s="31"/>
+      <c r="XA15" s="31"/>
+      <c r="XB15" s="31"/>
+      <c r="XC15" s="31"/>
+      <c r="XD15" s="31"/>
+      <c r="XE15" s="31"/>
+      <c r="XF15" s="31"/>
+      <c r="XG15" s="31"/>
+      <c r="XH15" s="31"/>
+      <c r="XI15" s="31"/>
+      <c r="XJ15" s="31"/>
+      <c r="XK15" s="31"/>
+      <c r="XL15" s="31"/>
+      <c r="XM15" s="31"/>
+      <c r="XN15" s="31"/>
+      <c r="XO15" s="31"/>
+      <c r="XP15" s="31"/>
+      <c r="XQ15" s="31"/>
+      <c r="XR15" s="32"/>
+      <c r="XS15" s="30"/>
+      <c r="XT15" s="31"/>
+      <c r="XU15" s="31"/>
+      <c r="XV15" s="31"/>
+      <c r="XW15" s="31"/>
+      <c r="XX15" s="31"/>
+      <c r="XY15" s="31"/>
+      <c r="XZ15" s="31"/>
+      <c r="YA15" s="31"/>
+      <c r="YB15" s="31"/>
+      <c r="YC15" s="31"/>
+      <c r="YD15" s="31"/>
+      <c r="YE15" s="31"/>
+      <c r="YF15" s="31"/>
+      <c r="YG15" s="31"/>
+      <c r="YH15" s="31"/>
+      <c r="YI15" s="31"/>
+      <c r="YJ15" s="31"/>
+      <c r="YK15" s="31"/>
+      <c r="YL15" s="32"/>
+      <c r="YM15" s="30"/>
+      <c r="YN15" s="31"/>
+      <c r="YO15" s="31"/>
+      <c r="YP15" s="31"/>
+      <c r="YQ15" s="31"/>
+      <c r="YR15" s="31"/>
+      <c r="YS15" s="31"/>
+      <c r="YT15" s="31"/>
+      <c r="YU15" s="31"/>
+      <c r="YV15" s="31"/>
+      <c r="YW15" s="31"/>
+      <c r="YX15" s="31"/>
+      <c r="YY15" s="31"/>
+      <c r="YZ15" s="31"/>
+      <c r="ZA15" s="31"/>
+      <c r="ZB15" s="31"/>
+      <c r="ZC15" s="31"/>
+      <c r="ZD15" s="31"/>
+      <c r="ZE15" s="31"/>
+      <c r="ZF15" s="32"/>
+      <c r="ZG15" s="30"/>
+      <c r="ZH15" s="31"/>
+      <c r="ZI15" s="31"/>
+      <c r="ZJ15" s="31"/>
+      <c r="ZK15" s="31"/>
+      <c r="ZL15" s="31"/>
+      <c r="ZM15" s="31"/>
+      <c r="ZN15" s="31"/>
+      <c r="ZO15" s="31"/>
+      <c r="ZP15" s="31"/>
+      <c r="ZQ15" s="31"/>
+      <c r="ZR15" s="31"/>
+      <c r="ZS15" s="31"/>
+      <c r="ZT15" s="31"/>
+      <c r="ZU15" s="31"/>
+      <c r="ZV15" s="31"/>
+      <c r="ZW15" s="31"/>
+      <c r="ZX15" s="31"/>
+      <c r="ZY15" s="31"/>
+      <c r="ZZ15" s="32"/>
+      <c r="AAA15" s="30"/>
+      <c r="AAB15" s="31"/>
+      <c r="AAC15" s="31"/>
+      <c r="AAD15" s="31"/>
+      <c r="AAE15" s="31"/>
+      <c r="AAF15" s="31"/>
+      <c r="AAG15" s="31"/>
+      <c r="AAH15" s="31"/>
+      <c r="AAI15" s="31"/>
+      <c r="AAJ15" s="31"/>
+      <c r="AAK15" s="31"/>
+      <c r="AAL15" s="31"/>
+      <c r="AAM15" s="31"/>
+      <c r="AAN15" s="31"/>
+      <c r="AAO15" s="31"/>
+      <c r="AAP15" s="31"/>
+      <c r="AAQ15" s="31"/>
+      <c r="AAR15" s="31"/>
+      <c r="AAS15" s="31"/>
+      <c r="AAT15" s="32"/>
+      <c r="AAU15" s="30"/>
+      <c r="AAV15" s="31"/>
+      <c r="AAW15" s="31"/>
+      <c r="AAX15" s="31"/>
+      <c r="AAY15" s="31"/>
+      <c r="AAZ15" s="31"/>
+      <c r="ABA15" s="31"/>
+      <c r="ABB15" s="31"/>
+      <c r="ABC15" s="31"/>
+      <c r="ABD15" s="31"/>
+      <c r="ABE15" s="31"/>
+      <c r="ABF15" s="31"/>
+      <c r="ABG15" s="31"/>
+      <c r="ABH15" s="31"/>
+      <c r="ABI15" s="31"/>
+      <c r="ABJ15" s="31"/>
+      <c r="ABK15" s="31"/>
+      <c r="ABL15" s="31"/>
+      <c r="ABM15" s="31"/>
+      <c r="ABN15" s="32"/>
+      <c r="ABO15" s="30"/>
+      <c r="ABP15" s="31"/>
+      <c r="ABQ15" s="31"/>
+      <c r="ABR15" s="31"/>
+      <c r="ABS15" s="31"/>
+      <c r="ABT15" s="31"/>
+      <c r="ABU15" s="31"/>
+      <c r="ABV15" s="31"/>
+      <c r="ABW15" s="31"/>
+      <c r="ABX15" s="31"/>
+      <c r="ABY15" s="31"/>
+      <c r="ABZ15" s="31"/>
+      <c r="ACA15" s="31"/>
+      <c r="ACB15" s="31"/>
+      <c r="ACC15" s="31"/>
+      <c r="ACD15" s="31"/>
+      <c r="ACE15" s="31"/>
+      <c r="ACF15" s="31"/>
+      <c r="ACG15" s="31"/>
+      <c r="ACH15" s="32"/>
+      <c r="ACI15" s="30"/>
+      <c r="ACJ15" s="31"/>
+      <c r="ACK15" s="31"/>
+      <c r="ACL15" s="31"/>
+      <c r="ACM15" s="31"/>
+      <c r="ACN15" s="31"/>
+      <c r="ACO15" s="31"/>
+      <c r="ACP15" s="31"/>
+      <c r="ACQ15" s="31"/>
+      <c r="ACR15" s="31"/>
+      <c r="ACS15" s="31"/>
+      <c r="ACT15" s="31"/>
+      <c r="ACU15" s="31"/>
+      <c r="ACV15" s="31"/>
+      <c r="ACW15" s="31"/>
+      <c r="ACX15" s="31"/>
+      <c r="ACY15" s="31"/>
+      <c r="ACZ15" s="31"/>
+      <c r="ADA15" s="31"/>
+      <c r="ADB15" s="32"/>
+      <c r="ADC15" s="30"/>
+      <c r="ADD15" s="31"/>
+      <c r="ADE15" s="31"/>
+      <c r="ADF15" s="31"/>
+      <c r="ADG15" s="31"/>
+      <c r="ADH15" s="31"/>
+      <c r="ADI15" s="31"/>
+      <c r="ADJ15" s="31"/>
+      <c r="ADK15" s="31"/>
+      <c r="ADL15" s="31"/>
+      <c r="ADM15" s="31"/>
+      <c r="ADN15" s="31"/>
+      <c r="ADO15" s="31"/>
+      <c r="ADP15" s="31"/>
+      <c r="ADQ15" s="31"/>
+      <c r="ADR15" s="31"/>
+      <c r="ADS15" s="31"/>
+      <c r="ADT15" s="31"/>
+      <c r="ADU15" s="31"/>
+      <c r="ADV15" s="32"/>
+      <c r="ADW15" s="30"/>
+      <c r="ADX15" s="31"/>
+      <c r="ADY15" s="31"/>
+      <c r="ADZ15" s="31"/>
+      <c r="AEA15" s="31"/>
+      <c r="AEB15" s="31"/>
+      <c r="AEC15" s="31"/>
+      <c r="AED15" s="31"/>
+      <c r="AEE15" s="31"/>
+      <c r="AEF15" s="31"/>
+      <c r="AEG15" s="31"/>
+      <c r="AEH15" s="31"/>
+      <c r="AEI15" s="31"/>
+      <c r="AEJ15" s="31"/>
+      <c r="AEK15" s="31"/>
+      <c r="AEL15" s="31"/>
+      <c r="AEM15" s="31"/>
+      <c r="AEN15" s="31"/>
+      <c r="AEO15" s="31"/>
+      <c r="AEP15" s="32"/>
+      <c r="AEQ15" s="30"/>
+      <c r="AER15" s="31"/>
+      <c r="AES15" s="31"/>
+      <c r="AET15" s="31"/>
+      <c r="AEU15" s="31"/>
+      <c r="AEV15" s="31"/>
+      <c r="AEW15" s="31"/>
+      <c r="AEX15" s="31"/>
+      <c r="AEY15" s="31"/>
+      <c r="AEZ15" s="31"/>
+      <c r="AFA15" s="31"/>
+      <c r="AFB15" s="31"/>
+      <c r="AFC15" s="31"/>
+      <c r="AFD15" s="31"/>
+      <c r="AFE15" s="31"/>
+      <c r="AFF15" s="31"/>
+      <c r="AFG15" s="31"/>
+      <c r="AFH15" s="31"/>
+      <c r="AFI15" s="31"/>
+      <c r="AFJ15" s="32"/>
+      <c r="AFK15" s="30"/>
+      <c r="AFL15" s="31"/>
+      <c r="AFM15" s="31"/>
+      <c r="AFN15" s="31"/>
+      <c r="AFO15" s="31"/>
+      <c r="AFP15" s="31"/>
+      <c r="AFQ15" s="31"/>
+      <c r="AFR15" s="31"/>
+      <c r="AFS15" s="31"/>
+      <c r="AFT15" s="31"/>
+      <c r="AFU15" s="31"/>
+      <c r="AFV15" s="31"/>
+      <c r="AFW15" s="31"/>
+      <c r="AFX15" s="31"/>
+      <c r="AFY15" s="31"/>
+      <c r="AFZ15" s="31"/>
+      <c r="AGA15" s="31"/>
+      <c r="AGB15" s="31"/>
+      <c r="AGC15" s="31"/>
+      <c r="AGD15" s="32"/>
+      <c r="AGE15" s="30"/>
+      <c r="AGF15" s="31"/>
+      <c r="AGG15" s="31"/>
+      <c r="AGH15" s="31"/>
+      <c r="AGI15" s="31"/>
+      <c r="AGJ15" s="31"/>
+      <c r="AGK15" s="31"/>
+      <c r="AGL15" s="31"/>
+      <c r="AGM15" s="31"/>
+      <c r="AGN15" s="31"/>
+      <c r="AGO15" s="31"/>
+      <c r="AGP15" s="31"/>
+      <c r="AGQ15" s="31"/>
+      <c r="AGR15" s="31"/>
+      <c r="AGS15" s="31"/>
+      <c r="AGT15" s="31"/>
+      <c r="AGU15" s="31"/>
+      <c r="AGV15" s="31"/>
+      <c r="AGW15" s="31"/>
+      <c r="AGX15" s="32"/>
+      <c r="AGY15" s="30"/>
+      <c r="AGZ15" s="31"/>
+      <c r="AHA15" s="31"/>
+      <c r="AHB15" s="31"/>
+      <c r="AHC15" s="31"/>
+      <c r="AHD15" s="31"/>
+      <c r="AHE15" s="31"/>
+      <c r="AHF15" s="31"/>
+      <c r="AHG15" s="31"/>
+      <c r="AHH15" s="31"/>
+      <c r="AHI15" s="31"/>
+      <c r="AHJ15" s="31"/>
+      <c r="AHK15" s="31"/>
+      <c r="AHL15" s="31"/>
+      <c r="AHM15" s="31"/>
+      <c r="AHN15" s="31"/>
+      <c r="AHO15" s="31"/>
+      <c r="AHP15" s="31"/>
+      <c r="AHQ15" s="31"/>
+      <c r="AHR15" s="32"/>
+      <c r="AHS15" s="30"/>
+      <c r="AHT15" s="31"/>
+      <c r="AHU15" s="31"/>
+      <c r="AHV15" s="31"/>
+      <c r="AHW15" s="31"/>
+      <c r="AHX15" s="31"/>
+      <c r="AHY15" s="31"/>
+      <c r="AHZ15" s="31"/>
+      <c r="AIA15" s="31"/>
+      <c r="AIB15" s="31"/>
+      <c r="AIC15" s="31"/>
+      <c r="AID15" s="31"/>
+      <c r="AIE15" s="31"/>
+      <c r="AIF15" s="31"/>
+      <c r="AIG15" s="31"/>
+      <c r="AIH15" s="31"/>
+      <c r="AII15" s="31"/>
+      <c r="AIJ15" s="31"/>
+      <c r="AIK15" s="31"/>
+      <c r="AIL15" s="32"/>
+      <c r="AIM15" s="30"/>
+      <c r="AIN15" s="31"/>
+      <c r="AIO15" s="31"/>
+      <c r="AIP15" s="31"/>
+      <c r="AIQ15" s="31"/>
+      <c r="AIR15" s="31"/>
+      <c r="AIS15" s="31"/>
+      <c r="AIT15" s="31"/>
+      <c r="AIU15" s="31"/>
+      <c r="AIV15" s="31"/>
+      <c r="AIW15" s="31"/>
+      <c r="AIX15" s="31"/>
+      <c r="AIY15" s="31"/>
+      <c r="AIZ15" s="31"/>
+      <c r="AJA15" s="31"/>
+      <c r="AJB15" s="31"/>
+      <c r="AJC15" s="31"/>
+      <c r="AJD15" s="31"/>
+      <c r="AJE15" s="31"/>
+      <c r="AJF15" s="32"/>
+      <c r="AJG15" s="30"/>
+      <c r="AJH15" s="31"/>
+      <c r="AJI15" s="31"/>
+      <c r="AJJ15" s="31"/>
+      <c r="AJK15" s="31"/>
+      <c r="AJL15" s="31"/>
+      <c r="AJM15" s="31"/>
+      <c r="AJN15" s="31"/>
+      <c r="AJO15" s="31"/>
+      <c r="AJP15" s="31"/>
+      <c r="AJQ15" s="31"/>
+      <c r="AJR15" s="31"/>
+      <c r="AJS15" s="31"/>
+      <c r="AJT15" s="31"/>
+      <c r="AJU15" s="31"/>
+      <c r="AJV15" s="31"/>
+      <c r="AJW15" s="31"/>
+      <c r="AJX15" s="31"/>
+      <c r="AJY15" s="31"/>
+      <c r="AJZ15" s="32"/>
+      <c r="AKA15" s="30"/>
+      <c r="AKB15" s="31"/>
+      <c r="AKC15" s="31"/>
+      <c r="AKD15" s="31"/>
+      <c r="AKE15" s="31"/>
+      <c r="AKF15" s="31"/>
+      <c r="AKG15" s="31"/>
+      <c r="AKH15" s="31"/>
+      <c r="AKI15" s="31"/>
+      <c r="AKJ15" s="31"/>
+      <c r="AKK15" s="31"/>
+      <c r="AKL15" s="31"/>
+      <c r="AKM15" s="31"/>
+      <c r="AKN15" s="31"/>
+      <c r="AKO15" s="31"/>
+      <c r="AKP15" s="31"/>
+      <c r="AKQ15" s="31"/>
+      <c r="AKR15" s="31"/>
+      <c r="AKS15" s="31"/>
+      <c r="AKT15" s="32"/>
+      <c r="AKU15" s="30"/>
+      <c r="AKV15" s="31"/>
+      <c r="AKW15" s="31"/>
+      <c r="AKX15" s="31"/>
+      <c r="AKY15" s="31"/>
+      <c r="AKZ15" s="31"/>
+      <c r="ALA15" s="31"/>
+      <c r="ALB15" s="31"/>
+      <c r="ALC15" s="31"/>
+      <c r="ALD15" s="31"/>
+      <c r="ALE15" s="31"/>
+      <c r="ALF15" s="31"/>
+      <c r="ALG15" s="31"/>
+      <c r="ALH15" s="31"/>
+      <c r="ALI15" s="31"/>
+      <c r="ALJ15" s="31"/>
+      <c r="ALK15" s="31"/>
+      <c r="ALL15" s="31"/>
+      <c r="ALM15" s="31"/>
+      <c r="ALN15" s="32"/>
+      <c r="ALO15" s="30"/>
+      <c r="ALP15" s="31"/>
+      <c r="ALQ15" s="31"/>
+      <c r="ALR15" s="31"/>
+      <c r="ALS15" s="31"/>
+      <c r="ALT15" s="31"/>
+      <c r="ALU15" s="31"/>
+      <c r="ALV15" s="31"/>
+      <c r="ALW15" s="31"/>
+      <c r="ALX15" s="31"/>
+      <c r="ALY15" s="31"/>
+      <c r="ALZ15" s="31"/>
+      <c r="AMA15" s="31"/>
+      <c r="AMB15" s="31"/>
+      <c r="AMC15" s="31"/>
+      <c r="AMD15" s="31"/>
+      <c r="AME15" s="31"/>
+      <c r="AMF15" s="31"/>
+      <c r="AMG15" s="31"/>
+      <c r="AMH15" s="32"/>
+      <c r="AMI15" s="30"/>
+      <c r="AMJ15" s="31"/>
+      <c r="AMK15" s="31"/>
+      <c r="AML15" s="31"/>
+      <c r="AMM15" s="31"/>
+      <c r="AMN15" s="31"/>
+      <c r="AMO15" s="31"/>
+      <c r="AMP15" s="31"/>
+      <c r="AMQ15" s="31"/>
+      <c r="AMR15" s="31"/>
+      <c r="AMS15" s="31"/>
+      <c r="AMT15" s="31"/>
+      <c r="AMU15" s="31"/>
+      <c r="AMV15" s="31"/>
+      <c r="AMW15" s="31"/>
+      <c r="AMX15" s="31"/>
+      <c r="AMY15" s="31"/>
+      <c r="AMZ15" s="31"/>
+      <c r="ANA15" s="31"/>
+      <c r="ANB15" s="32"/>
+      <c r="ANC15" s="30"/>
+      <c r="AND15" s="31"/>
+      <c r="ANE15" s="31"/>
+      <c r="ANF15" s="31"/>
+      <c r="ANG15" s="31"/>
+      <c r="ANH15" s="31"/>
+      <c r="ANI15" s="31"/>
+      <c r="ANJ15" s="31"/>
+      <c r="ANK15" s="31"/>
+      <c r="ANL15" s="31"/>
+      <c r="ANM15" s="31"/>
+      <c r="ANN15" s="31"/>
+      <c r="ANO15" s="31"/>
+      <c r="ANP15" s="31"/>
+      <c r="ANQ15" s="31"/>
+      <c r="ANR15" s="31"/>
+      <c r="ANS15" s="31"/>
+      <c r="ANT15" s="31"/>
+      <c r="ANU15" s="31"/>
+      <c r="ANV15" s="32"/>
+      <c r="ANW15" s="30"/>
+      <c r="ANX15" s="31"/>
+      <c r="ANY15" s="31"/>
+      <c r="ANZ15" s="31"/>
+      <c r="AOA15" s="31"/>
+      <c r="AOB15" s="31"/>
+      <c r="AOC15" s="31"/>
+      <c r="AOD15" s="31"/>
+      <c r="AOE15" s="31"/>
+      <c r="AOF15" s="31"/>
+      <c r="AOG15" s="31"/>
+      <c r="AOH15" s="31"/>
+      <c r="AOI15" s="31"/>
+      <c r="AOJ15" s="31"/>
+      <c r="AOK15" s="31"/>
+      <c r="AOL15" s="31"/>
+      <c r="AOM15" s="31"/>
+      <c r="AON15" s="31"/>
+      <c r="AOO15" s="31"/>
+      <c r="AOP15" s="32"/>
     </row>
     <row r="16" spans="1:1082" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -8425,39 +8428,39 @@
       <c r="AOP16" s="7"/>
     </row>
     <row r="17" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
-      <c r="Q17" s="43" t="s">
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="Q17" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="45"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="56"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="48" t="s">
+      <c r="Z17" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="50"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="64"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
@@ -8573,45 +8576,45 @@
       <c r="EY17" s="6"/>
     </row>
     <row r="18" spans="2:155" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="47">
+      <c r="D18" s="22">
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="23" t="s">
+      <c r="R18" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="24"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="58"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="4">
         <v>0</v>
       </c>
-      <c r="AA18" s="23" t="s">
+      <c r="AA18" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="24"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="58"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -8727,45 +8730,45 @@
       <c r="EY18" s="6"/>
     </row>
     <row r="19" spans="2:155" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="46">
+      <c r="D19" s="21">
         <v>0</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="R19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="22"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="50"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-      <c r="AA19" s="21" t="s">
+      <c r="AA19" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="22"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="50"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
@@ -8869,42 +8872,42 @@
     </row>
     <row r="20" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D20" s="15"/>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="48"/>
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="21" t="s">
+      <c r="R20" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="22"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="50"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="4">
         <v>2</v>
       </c>
-      <c r="AA20" s="21" t="s">
+      <c r="AA20" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="22"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="50"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
@@ -9010,42 +9013,42 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
       <c r="N21" s="16"/>
       <c r="Q21" s="2">
         <v>3</v>
       </c>
-      <c r="R21" s="21" t="s">
+      <c r="R21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="22"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="50"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="2">
         <v>3</v>
       </c>
-      <c r="AA21" s="21" t="s">
+      <c r="AA21" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="22"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="50"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
@@ -9151,40 +9154,40 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="17"/>
       <c r="Q22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="22"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="50"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="4">
         <v>4</v>
       </c>
-      <c r="AA22" s="21" t="s">
+      <c r="AA22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="22"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="50"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
@@ -9303,27 +9306,27 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="22"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="50"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="14">
         <v>5</v>
       </c>
-      <c r="AA23" s="26" t="s">
+      <c r="AA23" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="27"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="61"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
@@ -9442,14 +9445,14 @@
       <c r="Q24" s="2">
         <v>6</v>
       </c>
-      <c r="R24" s="21" t="s">
+      <c r="R24" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="22"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="50"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
@@ -9571,14 +9574,14 @@
       <c r="Q25" s="2">
         <v>7</v>
       </c>
-      <c r="R25" s="21" t="s">
+      <c r="R25" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="22"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="50"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
@@ -9700,14 +9703,14 @@
       <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="22"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="50"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
@@ -9829,14 +9832,14 @@
       <c r="Q27" s="2">
         <v>9</v>
       </c>
-      <c r="R27" s="21" t="s">
+      <c r="R27" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="22"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="50"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
@@ -9945,14 +9948,14 @@
       <c r="Q28" s="2">
         <v>10</v>
       </c>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="22"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="50"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
@@ -10061,14 +10064,14 @@
       <c r="Q29" s="2">
         <v>11</v>
       </c>
-      <c r="R29" s="21" t="s">
+      <c r="R29" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="22"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="50"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
@@ -10177,14 +10180,14 @@
       <c r="Q30" s="2">
         <v>12</v>
       </c>
-      <c r="R30" s="21" t="s">
+      <c r="R30" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="22"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="50"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
@@ -10293,14 +10296,14 @@
       <c r="Q31" s="2">
         <v>13</v>
       </c>
-      <c r="R31" s="21" t="s">
+      <c r="R31" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="22"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="50"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
@@ -10409,14 +10412,14 @@
       <c r="Q32" s="2">
         <v>14</v>
       </c>
-      <c r="R32" s="21" t="s">
+      <c r="R32" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="22"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="50"/>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
@@ -10522,14 +10525,14 @@
       <c r="Q33" s="2">
         <v>15</v>
       </c>
-      <c r="R33" s="21" t="s">
+      <c r="R33" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="22"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="50"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
@@ -10635,14 +10638,14 @@
       <c r="Q34" s="14">
         <v>16</v>
       </c>
-      <c r="R34" s="26" t="s">
+      <c r="R34" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="27"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="61"/>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
@@ -31061,42 +31064,60 @@
       <c r="EL233" s="6"/>
     </row>
     <row r="1048576" spans="18:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R1048576" s="25"/>
-      <c r="S1048576" s="25"/>
-      <c r="T1048576" s="25"/>
-      <c r="U1048576" s="25"/>
-      <c r="V1048576" s="25"/>
-      <c r="W1048576" s="25"/>
+      <c r="R1048576" s="59"/>
+      <c r="S1048576" s="59"/>
+      <c r="T1048576" s="59"/>
+      <c r="U1048576" s="59"/>
+      <c r="V1048576" s="59"/>
+      <c r="W1048576" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="ME15:MX15"/>
-    <mergeCell ref="E21:M22"/>
-    <mergeCell ref="DS15:EL15"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="C15:V15"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="W15:AP15"/>
-    <mergeCell ref="AQ15:BJ15"/>
-    <mergeCell ref="BK15:CD15"/>
-    <mergeCell ref="CE15:CX15"/>
-    <mergeCell ref="CY15:DR15"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="II15:JB15"/>
-    <mergeCell ref="JC15:JV15"/>
-    <mergeCell ref="JW15:KP15"/>
-    <mergeCell ref="KQ15:LJ15"/>
-    <mergeCell ref="LK15:MD15"/>
-    <mergeCell ref="EM15:FF15"/>
-    <mergeCell ref="FG15:FZ15"/>
-    <mergeCell ref="GA15:GT15"/>
-    <mergeCell ref="GU15:HN15"/>
-    <mergeCell ref="HO15:IH15"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="R1048576:W1048576"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="WE15:WX15"/>
+    <mergeCell ref="NS15:OL15"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="SI15:TB15"/>
+    <mergeCell ref="TC15:TV15"/>
+    <mergeCell ref="TW15:UP15"/>
+    <mergeCell ref="UQ15:VJ15"/>
+    <mergeCell ref="VK15:WD15"/>
+    <mergeCell ref="OM15:PF15"/>
+    <mergeCell ref="PG15:PZ15"/>
+    <mergeCell ref="QA15:QT15"/>
+    <mergeCell ref="QU15:RN15"/>
+    <mergeCell ref="RO15:SH15"/>
+    <mergeCell ref="MY15:NR15"/>
+    <mergeCell ref="AKU15:ALN15"/>
+    <mergeCell ref="ALO15:AMH15"/>
+    <mergeCell ref="AMI15:ANB15"/>
+    <mergeCell ref="ANC15:ANV15"/>
+    <mergeCell ref="YM15:ZF15"/>
+    <mergeCell ref="ZG15:ZZ15"/>
+    <mergeCell ref="AAA15:AAT15"/>
+    <mergeCell ref="AAU15:ABN15"/>
     <mergeCell ref="ANW15:AOP15"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="AGE15:AGX15"/>
@@ -31113,51 +31134,33 @@
     <mergeCell ref="AFK15:AGD15"/>
     <mergeCell ref="WY15:XR15"/>
     <mergeCell ref="XS15:YL15"/>
-    <mergeCell ref="AKU15:ALN15"/>
-    <mergeCell ref="ALO15:AMH15"/>
-    <mergeCell ref="AMI15:ANB15"/>
-    <mergeCell ref="ANC15:ANV15"/>
-    <mergeCell ref="YM15:ZF15"/>
-    <mergeCell ref="ZG15:ZZ15"/>
-    <mergeCell ref="AAA15:AAT15"/>
-    <mergeCell ref="AAU15:ABN15"/>
-    <mergeCell ref="WE15:WX15"/>
-    <mergeCell ref="NS15:OL15"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="SI15:TB15"/>
-    <mergeCell ref="TC15:TV15"/>
-    <mergeCell ref="TW15:UP15"/>
-    <mergeCell ref="UQ15:VJ15"/>
-    <mergeCell ref="VK15:WD15"/>
-    <mergeCell ref="OM15:PF15"/>
-    <mergeCell ref="PG15:PZ15"/>
-    <mergeCell ref="QA15:QT15"/>
-    <mergeCell ref="QU15:RN15"/>
-    <mergeCell ref="RO15:SH15"/>
-    <mergeCell ref="MY15:NR15"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R1048576:W1048576"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="LK15:MD15"/>
+    <mergeCell ref="EM15:FF15"/>
+    <mergeCell ref="FG15:FZ15"/>
+    <mergeCell ref="GA15:GT15"/>
+    <mergeCell ref="GU15:HN15"/>
+    <mergeCell ref="HO15:IH15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="C15:V15"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="W15:AP15"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="ME15:MX15"/>
+    <mergeCell ref="E21:M22"/>
+    <mergeCell ref="DS15:EL15"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="AQ15:BJ15"/>
+    <mergeCell ref="BK15:CD15"/>
+    <mergeCell ref="CE15:CX15"/>
+    <mergeCell ref="CY15:DR15"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="II15:JB15"/>
+    <mergeCell ref="JC15:JV15"/>
+    <mergeCell ref="JW15:KP15"/>
+    <mergeCell ref="KQ15:LJ15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
